--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="12_08_17" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
   <si>
     <t>CODIGO</t>
   </si>
@@ -246,6 +247,267 @@
   </si>
   <si>
     <t xml:space="preserve">MALETIN PARA COMPUTADORA </t>
+  </si>
+  <si>
+    <t>H-155</t>
+  </si>
+  <si>
+    <t>ESTANTE ESQUINERO PARA BAÑO</t>
+  </si>
+  <si>
+    <t>G014</t>
+  </si>
+  <si>
+    <t>JUEGO TAZA C/PLATO</t>
+  </si>
+  <si>
+    <t>INGRESADO</t>
+  </si>
+  <si>
+    <t>748-95200V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDEJA P/DULCE </t>
+  </si>
+  <si>
+    <t>748-42864</t>
+  </si>
+  <si>
+    <t>SET VASO 55CC</t>
+  </si>
+  <si>
+    <t>4281-3W</t>
+  </si>
+  <si>
+    <t>LAMPARA P/PARED 3 BOMBILLOS</t>
+  </si>
+  <si>
+    <t>92033CR/3HWTE27</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO</t>
+  </si>
+  <si>
+    <t>704-81964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAVELAS PLATEADO </t>
+  </si>
+  <si>
+    <t>7677-KIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET DE LAMPARAS DE PISO 3 PIEZAS </t>
+  </si>
+  <si>
+    <t>718-33313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTA ARTIFICIAL </t>
+  </si>
+  <si>
+    <t>3LBAR-NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA P/PARED 3 BOMBILLOS </t>
+  </si>
+  <si>
+    <t>ML-0049</t>
+  </si>
+  <si>
+    <t>ML-0089</t>
+  </si>
+  <si>
+    <t>CUADRO 45X65</t>
+  </si>
+  <si>
+    <t>CUADRO 45X66</t>
+  </si>
+  <si>
+    <t>5373-T</t>
+  </si>
+  <si>
+    <t>LAMPARA P/MESA</t>
+  </si>
+  <si>
+    <t>5378-T</t>
+  </si>
+  <si>
+    <t>D-4465-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA P/TECHO </t>
+  </si>
+  <si>
+    <t>605-90108753</t>
+  </si>
+  <si>
+    <t>6243-3</t>
+  </si>
+  <si>
+    <t>LAMPARA P/PARED</t>
+  </si>
+  <si>
+    <t>4665W-AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA P/PARED </t>
+  </si>
+  <si>
+    <t>754-31354</t>
+  </si>
+  <si>
+    <t>CUADROS 52X25</t>
+  </si>
+  <si>
+    <t>8114-BU</t>
+  </si>
+  <si>
+    <t>8114-PK</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO COLOR ROSADO 1B</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO COLOR CELESTE</t>
+  </si>
+  <si>
+    <t>8114-BE</t>
+  </si>
+  <si>
+    <t>8114-WH</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO COLOR BEIGE</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO COLOR BLANCO</t>
+  </si>
+  <si>
+    <t>SC-100-374</t>
+  </si>
+  <si>
+    <t>SILLA P/OFICINA</t>
+  </si>
+  <si>
+    <t>851-E014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA DE ESPERA </t>
+  </si>
+  <si>
+    <t>4065W-BK</t>
+  </si>
+  <si>
+    <t>LAMPARA /PARED/EXTERIORES</t>
+  </si>
+  <si>
+    <t>4065W-DG</t>
+  </si>
+  <si>
+    <t>705-25870</t>
+  </si>
+  <si>
+    <t>SET DE FRASCOS PARA COCINA 3 PIEZAS</t>
+  </si>
+  <si>
+    <t>856W-BR</t>
+  </si>
+  <si>
+    <t>6902BR</t>
+  </si>
+  <si>
+    <t>4041H-BR</t>
+  </si>
+  <si>
+    <t>4041H-BK</t>
+  </si>
+  <si>
+    <t>5562B</t>
+  </si>
+  <si>
+    <t>2931-11BR</t>
+  </si>
+  <si>
+    <t>3378SN</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO / EXTERIORES</t>
+  </si>
+  <si>
+    <t>4065H-VG</t>
+  </si>
+  <si>
+    <t>6130H-NE</t>
+  </si>
+  <si>
+    <t>3917SN-2</t>
+  </si>
+  <si>
+    <t>8806-XP-SILLON</t>
+  </si>
+  <si>
+    <t>SILLON PLASTICO ETERNA</t>
+  </si>
+  <si>
+    <t>5273W-BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA P/PARED EXTERIORES </t>
+  </si>
+  <si>
+    <t>5273W-WH</t>
+  </si>
+  <si>
+    <t>5273W-DG</t>
+  </si>
+  <si>
+    <t>7029-2W</t>
+  </si>
+  <si>
+    <t>723-83573</t>
+  </si>
+  <si>
+    <t>VASO 10.7 ONZ</t>
+  </si>
+  <si>
+    <t>053-90133525</t>
+  </si>
+  <si>
+    <t>PARAGUAS P/TERRAZA</t>
+  </si>
+  <si>
+    <t>851-11710039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA PLAYERA  P/NIÑO </t>
+  </si>
+  <si>
+    <t>604-76274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA P/MESA </t>
+  </si>
+  <si>
+    <t>857-11883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATRE </t>
+  </si>
+  <si>
+    <t>729-73703A</t>
+  </si>
+  <si>
+    <t>ESPEJO REDONDO</t>
+  </si>
+  <si>
+    <t>7032-2W</t>
+  </si>
+  <si>
+    <t>64135E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLCHON INFLABLE QUEEN </t>
   </si>
 </sst>
 </file>
@@ -270,7 +532,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -332,11 +600,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -630,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,12 +1449,803 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
+        <v>38</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6732</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
   <si>
     <t>CODIGO</t>
   </si>
@@ -267,9 +267,6 @@
     <t>748-95200V</t>
   </si>
   <si>
-    <t xml:space="preserve">BANDEJA P/DULCE </t>
-  </si>
-  <si>
     <t>748-42864</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>704-81964</t>
   </si>
   <si>
-    <t xml:space="preserve">PORTAVELAS PLATEADO </t>
-  </si>
-  <si>
     <t>7677-KIT</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>718-33313</t>
   </si>
   <si>
-    <t xml:space="preserve">PLANTA ARTIFICIAL </t>
-  </si>
-  <si>
     <t>3LBAR-NE</t>
   </si>
   <si>
@@ -321,9 +312,6 @@
     <t>CUADRO 45X65</t>
   </si>
   <si>
-    <t>CUADRO 45X66</t>
-  </si>
-  <si>
     <t>5373-T</t>
   </si>
   <si>
@@ -408,9 +396,6 @@
     <t>705-25870</t>
   </si>
   <si>
-    <t>SET DE FRASCOS PARA COCINA 3 PIEZAS</t>
-  </si>
-  <si>
     <t>856W-BR</t>
   </si>
   <si>
@@ -468,9 +453,6 @@
     <t>723-83573</t>
   </si>
   <si>
-    <t>VASO 10.7 ONZ</t>
-  </si>
-  <si>
     <t>053-90133525</t>
   </si>
   <si>
@@ -492,9 +474,6 @@
     <t>857-11883</t>
   </si>
   <si>
-    <t xml:space="preserve">CATRE </t>
-  </si>
-  <si>
     <t>729-73703A</t>
   </si>
   <si>
@@ -508,6 +487,33 @@
   </si>
   <si>
     <t xml:space="preserve">COLCHON INFLABLE QUEEN </t>
+  </si>
+  <si>
+    <t>855-TV106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATRE UNIPERSONAL COLOR VERDE </t>
+  </si>
+  <si>
+    <t>MUEBLE PARA TV 115X47X130</t>
+  </si>
+  <si>
+    <t>BANDEJA P/DULCE  2 PIEZAS/ TAMAÑO 322</t>
+  </si>
+  <si>
+    <t>PORTAVELAS PLATEADO 20X12X25</t>
+  </si>
+  <si>
+    <t>PLANTA ARTIFICIAL /TAMAÑO 30</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO 3 BOMBILLOS</t>
+  </si>
+  <si>
+    <t>VASO 10.7 ONZ TAMAÑO 8X10</t>
+  </si>
+  <si>
+    <t>SET DE FRASCOS PARA COCINA 3 PIEZAS TAMAÑO 13X7</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -601,6 +607,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1461,24 +1476,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1498,7 +1513,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C2" t="s">
@@ -1512,7 +1527,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="8"/>
@@ -1532,11 +1547,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1546,11 +1561,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1560,11 +1575,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1574,11 +1589,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1588,11 +1603,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>87</v>
+      <c r="A8" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1602,11 +1617,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
+      <c r="A9" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1616,11 +1631,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
+      <c r="A10" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1630,11 +1645,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>93</v>
+      <c r="A11" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1644,11 +1659,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>95</v>
+      <c r="A12" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1658,11 +1673,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>96</v>
+      <c r="A13" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1672,11 +1687,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>99</v>
+      <c r="A14" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1686,11 +1701,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>101</v>
+      <c r="A15" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1700,11 +1715,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
+      <c r="A16" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1714,11 +1729,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>104</v>
+      <c r="A17" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1728,11 +1743,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>105</v>
+      <c r="A18" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1742,11 +1757,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
+      <c r="A19" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1756,11 +1771,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>107</v>
+      <c r="A20" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1770,11 +1785,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>109</v>
+      <c r="A21" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1784,11 +1799,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A22" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1798,11 +1813,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>111</v>
+      <c r="A23" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1812,11 +1827,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>115</v>
+      <c r="A24" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1826,11 +1841,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>116</v>
+      <c r="A25" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1840,33 +1855,33 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>119</v>
+      <c r="A26" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>121</v>
+      <c r="A27" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>123</v>
+      <c r="A28" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1876,11 +1891,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>125</v>
+      <c r="A29" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1890,11 +1905,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>126</v>
+      <c r="A30" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1904,11 +1919,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>128</v>
+      <c r="A31" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1918,11 +1933,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>129</v>
+      <c r="A32" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1932,11 +1947,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>130</v>
+      <c r="A33" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1946,11 +1961,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>131</v>
+      <c r="A34" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1960,11 +1975,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>132</v>
+      <c r="A35" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1974,11 +1989,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>133</v>
+      <c r="A36" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1988,11 +2003,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>134</v>
+      <c r="A37" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2002,11 +2017,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>136</v>
+      <c r="A38" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2016,11 +2031,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="10">
         <v>6732</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2030,11 +2045,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>137</v>
+      <c r="A40" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2044,11 +2059,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>138</v>
+      <c r="A41" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2058,11 +2073,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>139</v>
+      <c r="A42" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2072,11 +2087,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>141</v>
+      <c r="A43" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2086,11 +2101,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>143</v>
+      <c r="A44" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2100,11 +2115,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>144</v>
+      <c r="A45" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2114,11 +2129,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>145</v>
+      <c r="A46" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2128,11 +2143,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>146</v>
+      <c r="A47" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -2142,11 +2157,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>148</v>
+      <c r="A48" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2156,11 +2171,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>150</v>
+      <c r="A49" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2170,11 +2185,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>152</v>
+      <c r="A50" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2184,8 +2199,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>154</v>
+      <c r="A51" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C51" t="s">
         <v>155</v>
@@ -2198,11 +2213,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>156</v>
+      <c r="A52" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2212,11 +2227,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>158</v>
+      <c r="A53" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2226,17 +2241,31 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>159</v>
+      <c r="A54" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="F54">
         <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="171">
   <si>
     <t>CODIGO</t>
   </si>
@@ -514,6 +514,30 @@
   </si>
   <si>
     <t>SET DE FRASCOS PARA COCINA 3 PIEZAS TAMAÑO 13X7</t>
+  </si>
+  <si>
+    <t>4665W-BR</t>
+  </si>
+  <si>
+    <t>605-90114711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA PARA TECHO 5 BOMBILLOS </t>
+  </si>
+  <si>
+    <t>8146-D500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA PARA TECHO CON BOMBILLOS INCLUIDOS </t>
+  </si>
+  <si>
+    <t>8171-3+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA PARA TECHO DE 3 BOMBILLOS </t>
+  </si>
+  <si>
+    <t>4173SN-1W</t>
   </si>
 </sst>
 </file>
@@ -620,7 +644,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1464,10 +1502,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -1476,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1796,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
         <v>104</v>
@@ -2268,13 +2306,64 @@
         <v>230</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="209">
   <si>
     <t>CODIGO</t>
   </si>
@@ -538,6 +538,120 @@
   </si>
   <si>
     <t>4173SN-1W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA PARA PARED </t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET SILLAS 3 PUESTOS PARA ESPERA COLOR NEGRO </t>
+  </si>
+  <si>
+    <t>712-33377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA RETRATO 36X43X3.5 </t>
+  </si>
+  <si>
+    <t>21-1021</t>
+  </si>
+  <si>
+    <t>SET DE CORTINAS MIEL HOME 58"X84"</t>
+  </si>
+  <si>
+    <t>21-1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET SABANAS PARA NIÑOS MIEL HOME ROSADO </t>
+  </si>
+  <si>
+    <t>21-1025</t>
+  </si>
+  <si>
+    <t>SET CORTINAS PARA NIÑOS MIEL HOME ROSADO/CELESTE 60"X84"</t>
+  </si>
+  <si>
+    <t>H309-5</t>
+  </si>
+  <si>
+    <t>H309-3</t>
+  </si>
+  <si>
+    <t>H309-1</t>
+  </si>
+  <si>
+    <t>LIMPIADOR MULTIUSO 13 ONZAS</t>
+  </si>
+  <si>
+    <t>LIMPIADOR PARA COCINA 13 ONZ</t>
+  </si>
+  <si>
+    <t>SPRAY PARA PLANCHAR 13 ONZ</t>
+  </si>
+  <si>
+    <t>BD-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET SABANAS KING MI CASA D`ORO </t>
+  </si>
+  <si>
+    <t>SDX1800</t>
+  </si>
+  <si>
+    <t>SET SABANAS KING SAMAR DELUXE</t>
+  </si>
+  <si>
+    <t>21-1059</t>
+  </si>
+  <si>
+    <t>SET SABANAS KING MIEL HOME</t>
+  </si>
+  <si>
+    <t>21-1058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET SABANAS  QUEEN MIEL HOME </t>
+  </si>
+  <si>
+    <t>856-90125239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCHIVADOR DE 10 PUERTAS </t>
+  </si>
+  <si>
+    <t>FLORERO DE CRISTAL</t>
+  </si>
+  <si>
+    <t>HG-3191</t>
+  </si>
+  <si>
+    <t>718-30022</t>
+  </si>
+  <si>
+    <t>718-31082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTA CON MASETA </t>
+  </si>
+  <si>
+    <t>RK-5S#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAQUEL DE 4 ESTANTES </t>
+  </si>
+  <si>
+    <t>853-90122121</t>
+  </si>
+  <si>
+    <t>MESA PARA PC COLOR ROJO VINO</t>
+  </si>
+  <si>
+    <t>851-5546RV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA COLOR ROJO PARA BAR </t>
   </si>
 </sst>
 </file>
@@ -644,14 +758,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1502,10 +1609,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -1514,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,16 +2459,333 @@
       <c r="A59" s="10" t="s">
         <v>170</v>
       </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="12_08_17" sheetId="2" r:id="rId2"/>
+    <sheet name="18_08_17" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="248">
   <si>
     <t>CODIGO</t>
   </si>
@@ -652,6 +654,123 @@
   </si>
   <si>
     <t xml:space="preserve">SILLA COLOR ROJO PARA BAR </t>
+  </si>
+  <si>
+    <t>980-VH015501</t>
+  </si>
+  <si>
+    <t>MONITOR MANUAL PARA PRESION ARTERIAL</t>
+  </si>
+  <si>
+    <t>718-90141108</t>
+  </si>
+  <si>
+    <t>856-AB05CHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESITA DE NOCHE DE DOS GAVETAS </t>
+  </si>
+  <si>
+    <t>853-90122122</t>
+  </si>
+  <si>
+    <t>MUEBLE PARA COMPUTADORA</t>
+  </si>
+  <si>
+    <t>852-PW6038CTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA PARA CAFÉ </t>
+  </si>
+  <si>
+    <t>11725SL/5H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA </t>
+  </si>
+  <si>
+    <t>852-CW002N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA PARA CENTRO </t>
+  </si>
+  <si>
+    <t>852-MA112221</t>
+  </si>
+  <si>
+    <t>704-32209T</t>
+  </si>
+  <si>
+    <t>CANDELABRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLAS PARA ESPERA METALICA DE 3 PUESTOS </t>
+  </si>
+  <si>
+    <t>852-112219AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUADRO </t>
+  </si>
+  <si>
+    <t>700-MOD200X300</t>
+  </si>
+  <si>
+    <t>ALFOMBRA COLOR CAFÉ  200X300</t>
+  </si>
+  <si>
+    <t>BG-81</t>
+  </si>
+  <si>
+    <t>ESCRITORIO EN L VIDRIO</t>
+  </si>
+  <si>
+    <t>GI-2929-42</t>
+  </si>
+  <si>
+    <t>SOPORTE POLAR PARA TV 37" 48"</t>
+  </si>
+  <si>
+    <t>CR-131-L2520</t>
+  </si>
+  <si>
+    <t>SILLA PARTA OFICINA NEGRO</t>
+  </si>
+  <si>
+    <t>851-A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA ESPERA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA MESA CONFERENCIA </t>
+  </si>
+  <si>
+    <t>GI-2926</t>
+  </si>
+  <si>
+    <t>SOPORTE PARA TV</t>
+  </si>
+  <si>
+    <t>ST-S1203</t>
+  </si>
+  <si>
+    <t>ECRITORIO DE VIDRIO Y METAL</t>
+  </si>
+  <si>
+    <t>YLQ-3188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIMOTO ELECTRICA </t>
+  </si>
+  <si>
+    <t>856-90125225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCHIVADOR DE 3 DIVISIONES  </t>
+  </si>
+  <si>
+    <t>W-112B</t>
   </si>
 </sst>
 </file>
@@ -758,7 +877,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -793,6 +941,13 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1609,10 +1764,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -1623,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,15 +2934,427 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -14,9 +14,12 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="12_08_17" sheetId="2" r:id="rId2"/>
-    <sheet name="18_08_17" sheetId="4" r:id="rId3"/>
+    <sheet name="23_08_17" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="250">
   <si>
     <t>CODIGO</t>
   </si>
@@ -713,9 +716,6 @@
     <t xml:space="preserve">CUADRO </t>
   </si>
   <si>
-    <t>700-MOD200X300</t>
-  </si>
-  <si>
     <t>ALFOMBRA COLOR CAFÉ  200X300</t>
   </si>
   <si>
@@ -731,9 +731,6 @@
     <t>SOPORTE POLAR PARA TV 37" 48"</t>
   </si>
   <si>
-    <t>CR-131-L2520</t>
-  </si>
-  <si>
     <t>SILLA PARTA OFICINA NEGRO</t>
   </si>
   <si>
@@ -771,6 +768,18 @@
   </si>
   <si>
     <t>W-112B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exixtencia </t>
+  </si>
+  <si>
+    <t>Nuevos</t>
+  </si>
+  <si>
+    <t>700-MOD</t>
+  </si>
+  <si>
+    <t>CR-131/GRIS -L2520</t>
   </si>
 </sst>
 </file>
@@ -780,7 +789,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;C$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,8 +803,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +838,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -873,11 +900,47 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -941,13 +1004,6 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1230,7 +1286,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,10 +1820,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -1778,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:F72"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,13 +2990,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -2949,10 +3005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,7 +3020,7 @@
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2984,366 +3040,443 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14">
+        <v>85</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
+        <v>145</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D2">
+      <c r="D7" s="12">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>205</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="13">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
         <v>235</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>205</v>
-      </c>
-      <c r="C20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="F27">
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13">
         <v>158</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F27">
+    <sortState ref="A2:F27">
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="12_08_17" sheetId="2" r:id="rId2"/>
     <sheet name="23_08_17" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId4"/>
+    <sheet name="25_08_17" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25_08_17'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="296">
   <si>
     <t>CODIGO</t>
   </si>
@@ -780,6 +781,144 @@
   </si>
   <si>
     <t>CR-131/GRIS -L2520</t>
+  </si>
+  <si>
+    <t>8097-DA80</t>
+  </si>
+  <si>
+    <t>LAMPARA DE CRISTAL PARA TECHO</t>
+  </si>
+  <si>
+    <t>SOPORTE PARA TV 37" 48"</t>
+  </si>
+  <si>
+    <t>FP20-18</t>
+  </si>
+  <si>
+    <t>SARTEN MARCA DAILY 18 CM</t>
+  </si>
+  <si>
+    <t>FP20-22</t>
+  </si>
+  <si>
+    <t>SARTEN MARCA DAILY 22 CM</t>
+  </si>
+  <si>
+    <t>139-009</t>
+  </si>
+  <si>
+    <t>139-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARTEN MARCA GUTTLEM 28CM </t>
+  </si>
+  <si>
+    <t>IU-2-5LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 2.5LT</t>
+  </si>
+  <si>
+    <t>IU-5LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 5LT</t>
+  </si>
+  <si>
+    <t>IU-9LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 9LT</t>
+  </si>
+  <si>
+    <t>IU-15LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 15LT</t>
+  </si>
+  <si>
+    <t>IU-25LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 25LT</t>
+  </si>
+  <si>
+    <t>A1637025</t>
+  </si>
+  <si>
+    <t>SET DE EDREDON -QUEEN MARCA PALM SPRINGS HOMES</t>
+  </si>
+  <si>
+    <t>TA-1515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCRITORIO EN L </t>
+  </si>
+  <si>
+    <t>MB-1382#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCRITORIO </t>
+  </si>
+  <si>
+    <t>853-90133067</t>
+  </si>
+  <si>
+    <t>SILLA PARA OFICINA</t>
+  </si>
+  <si>
+    <t>851-90133318</t>
+  </si>
+  <si>
+    <t>853-2155HEN</t>
+  </si>
+  <si>
+    <t>9300L-BLKPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA OFICINA </t>
+  </si>
+  <si>
+    <t>851-90133316</t>
+  </si>
+  <si>
+    <t>SILLA PARA BAR</t>
+  </si>
+  <si>
+    <t>853-FC001N</t>
+  </si>
+  <si>
+    <t>856-90125259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOKER DE DOS PUERTAS COLOR GRIS </t>
+  </si>
+  <si>
+    <t>SCH-02</t>
+  </si>
+  <si>
+    <t>MESA PARA CENTRO MDF</t>
+  </si>
+  <si>
+    <t>704-90135296</t>
+  </si>
+  <si>
+    <t>001#</t>
+  </si>
+  <si>
+    <t>CR-131-L2520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA OFICINA COLOR GRIS </t>
+  </si>
+  <si>
+    <t>NUEVOS</t>
+  </si>
+  <si>
+    <t>EXISTENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLLA PARA ESPERA </t>
   </si>
 </sst>
 </file>
@@ -810,7 +949,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +992,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -881,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -906,24 +1057,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -931,6 +1077,36 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -967,6 +1143,14 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1820,10 +2004,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -2990,13 +3174,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3007,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,23 +3641,23 @@
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="11"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3482,12 +3666,480 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17">
+        <v>210</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="17">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="16">
+        <v>8</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="16">
+        <v>7</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F27">
+      <sortCondition sortBy="cellColor" ref="C1" dxfId="5"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -3669,7 +3669,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4116,7 +4116,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="F27" s="16">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1">

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Siles\Documents\GitHub\mh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -924,11 +924,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;C$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,8 +948,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1012,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1032,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1061,6 +1075,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2018,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,7 +3208,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F7" sqref="F7:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,7 +3420,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -3418,7 +3436,9 @@
         <v>1</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -3432,7 +3452,9 @@
         <v>1</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -3446,7 +3468,9 @@
         <v>1</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -3464,7 +3488,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>231</v>
       </c>
@@ -3479,8 +3503,9 @@
       <c r="F17" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>249</v>
       </c>
@@ -3496,7 +3521,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>234</v>
       </c>
@@ -3511,8 +3536,9 @@
       <c r="F19" s="13">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>205</v>
       </c>
@@ -3524,9 +3550,12 @@
         <v>2</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>67</v>
       </c>
@@ -3542,7 +3571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>237</v>
       </c>
@@ -3558,7 +3587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>239</v>
       </c>
@@ -3574,7 +3603,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>241</v>
       </c>
@@ -3590,7 +3619,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>200</v>
       </c>
@@ -3606,7 +3635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>243</v>
       </c>
@@ -3622,7 +3651,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>245</v>
       </c>
@@ -3669,7 +3698,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,7 +3759,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3764,7 +3796,9 @@
         <v>1</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
       <c r="I5" s="17"/>
       <c r="J5" t="s">
         <v>294</v>
@@ -3782,7 +3816,9 @@
         <v>10</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -3815,6 +3851,8 @@
       <c r="F8" s="17">
         <v>108</v>
       </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="12_08_17" sheetId="2" r:id="rId2"/>
     <sheet name="23_08_17" sheetId="4" r:id="rId3"/>
     <sheet name="25_08_17" sheetId="3" r:id="rId4"/>
+    <sheet name="31_08_17" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25_08_17'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'31_08_17'!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="324">
   <si>
     <t>CODIGO</t>
   </si>
@@ -919,6 +921,90 @@
   </si>
   <si>
     <t xml:space="preserve">SILLLA PARA ESPERA </t>
+  </si>
+  <si>
+    <t>856-90133159</t>
+  </si>
+  <si>
+    <t>704-90129300</t>
+  </si>
+  <si>
+    <t>CANDELABRO BLANCO</t>
+  </si>
+  <si>
+    <t>LAMPARA PARA TECHO 3 BOMBILLOS</t>
+  </si>
+  <si>
+    <t>856-3500000714S</t>
+  </si>
+  <si>
+    <t>GABINETE PARA COCINA</t>
+  </si>
+  <si>
+    <t>G2026-300</t>
+  </si>
+  <si>
+    <t>LAMPARA PARA TECHO</t>
+  </si>
+  <si>
+    <t>856-3500000701S</t>
+  </si>
+  <si>
+    <t>GABINETE P/COCINA</t>
+  </si>
+  <si>
+    <t>LOCKER DE 5 DIV COLOR NEGRO 180X38X45</t>
+  </si>
+  <si>
+    <t>853-3009M</t>
+  </si>
+  <si>
+    <t>SILLA P/ESPERA</t>
+  </si>
+  <si>
+    <t>JS-5967V</t>
+  </si>
+  <si>
+    <t>CARRITO P/NIÑO</t>
+  </si>
+  <si>
+    <t>8048-6</t>
+  </si>
+  <si>
+    <t>8266-5</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO 6 BOMBILLOS</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO 5 BOMBILLOS</t>
+  </si>
+  <si>
+    <t>704-90141431</t>
+  </si>
+  <si>
+    <t>CANDELABRO DORADO</t>
+  </si>
+  <si>
+    <t>BLPP-5005-1500</t>
+  </si>
+  <si>
+    <t>ESCRITORIO P/OFICINA</t>
+  </si>
+  <si>
+    <t>855-AB04NC</t>
+  </si>
+  <si>
+    <t>MUEBLE PARA TV</t>
+  </si>
+  <si>
+    <t>851-YSA30010</t>
+  </si>
+  <si>
+    <t>EXIXTENTE</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1090,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1032,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1061,11 +1153,94 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2004,10 +2179,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -2019,7 +2194,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,13 +3349,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3192,7 +3367,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,23 +3816,23 @@
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="11"/>
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="22"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3666,15 +3841,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -4120,23 +4295,429 @@
         <v>135</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1" dxfId="5"/>
+      <sortCondition sortBy="cellColor" ref="C1" dxfId="16"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13">
+        <v>185</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F2">
+    <sortState ref="A3:F17">
+      <sortCondition sortBy="cellColor" ref="C2" dxfId="9"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A3:A8">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="325">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t>NUEVO</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -4420,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4691,6 +4694,11 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23">
         <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,10 @@
     <sheet name="23_08_17" sheetId="4" r:id="rId3"/>
     <sheet name="25_08_17" sheetId="3" r:id="rId4"/>
     <sheet name="31_08_17" sheetId="5" r:id="rId5"/>
+    <sheet name="09_09_17" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'09_09_17'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25_08_17'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'31_08_17'!$A$2:$F$2</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="382">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1008,6 +1010,177 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>852-9097486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA REDONDA </t>
+  </si>
+  <si>
+    <t>851-SF92CHO</t>
+  </si>
+  <si>
+    <t>JUEGO DE SOFA DE TRES PIEZAS</t>
+  </si>
+  <si>
+    <t>851-408010</t>
+  </si>
+  <si>
+    <t>SOFA EN L COLOR CHOCOLATE</t>
+  </si>
+  <si>
+    <t>851-5546N</t>
+  </si>
+  <si>
+    <t>SILLA P/BAR</t>
+  </si>
+  <si>
+    <t>ST-S1401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCRITORIO PARA PC </t>
+  </si>
+  <si>
+    <t>856-90133153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCHIVADOR NEGRO </t>
+  </si>
+  <si>
+    <t>704-90141433</t>
+  </si>
+  <si>
+    <t>851-SF242CHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUEGO DE SOFA 2 PIEZAS </t>
+  </si>
+  <si>
+    <t>851-408022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFA EN L 1 PIEZA </t>
+  </si>
+  <si>
+    <t>72-90139248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIEL PARA CORTINA </t>
+  </si>
+  <si>
+    <t>605-90114684</t>
+  </si>
+  <si>
+    <t>852-NA150340CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA P/CENTRO </t>
+  </si>
+  <si>
+    <t>852-CT3346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOYERO GRANDE </t>
+  </si>
+  <si>
+    <t>719-83275-G</t>
+  </si>
+  <si>
+    <t>718-33321</t>
+  </si>
+  <si>
+    <t>6953869882888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA NIÑOS </t>
+  </si>
+  <si>
+    <t>852-8354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA PLEGABLE </t>
+  </si>
+  <si>
+    <t>CTMF52-5C3L</t>
+  </si>
+  <si>
+    <t>ABANICO PARA TECHO</t>
+  </si>
+  <si>
+    <t>139_98</t>
+  </si>
+  <si>
+    <t>801-M030RD</t>
+  </si>
+  <si>
+    <t>MOTO P/NIÑO COLOR ROJP 99X49X66 CM</t>
+  </si>
+  <si>
+    <t>D1-78996</t>
+  </si>
+  <si>
+    <t>33364</t>
+  </si>
+  <si>
+    <t>CANDELABRO PEQUEÑO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUADROS MEDIANOS </t>
+  </si>
+  <si>
+    <t>D1-81910</t>
+  </si>
+  <si>
+    <t>754-90100046</t>
+  </si>
+  <si>
+    <t>CUADRO ORQUIDES</t>
+  </si>
+  <si>
+    <t>754-90116784</t>
+  </si>
+  <si>
+    <t>CUADRO ELEFANTE</t>
+  </si>
+  <si>
+    <t>AD-0256</t>
+  </si>
+  <si>
+    <t>852-MA150340CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA DE VIDRIO P/CENTRO </t>
+  </si>
+  <si>
+    <t>801-58867V</t>
+  </si>
+  <si>
+    <t>MOTO VERDE P/NIÑO 102X53X6</t>
+  </si>
+  <si>
+    <t>704-81056</t>
+  </si>
+  <si>
+    <t>CANDELABRO 25X13X30</t>
+  </si>
+  <si>
+    <t>064-6014511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALETIN POLO VERDE CON NEGRO </t>
+  </si>
+  <si>
+    <t>1847010002C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDADERA DE ELEFANTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PLEGABLE BEIGE </t>
+  </si>
+  <si>
+    <t>D1-78530</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1160,11 +1333,77 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2182,10 +2421,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3352,13 +3591,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3819,23 +4058,23 @@
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="22"/>
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="31"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3846,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4397,24 +4636,24 @@
   </sheetData>
   <autoFilter ref="A1:F1">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1" dxfId="16"/>
+      <sortCondition sortBy="cellColor" ref="C1" dxfId="25"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4425,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,31 +4943,560 @@
   </sheetData>
   <autoFilter ref="A2:F2">
     <sortState ref="A3:F17">
-      <sortCondition sortBy="cellColor" ref="C2" dxfId="9"/>
+      <sortCondition sortBy="cellColor" ref="C2" dxfId="18"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="24">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="F23" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" t="s">
+        <v>368</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" t="s">
+        <v>371</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" t="s">
+        <v>377</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>380</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" t="s">
+        <v>348</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="24">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -17,10 +17,10 @@
     <sheet name="23_08_17" sheetId="4" r:id="rId3"/>
     <sheet name="25_08_17" sheetId="3" r:id="rId4"/>
     <sheet name="31_08_17" sheetId="5" r:id="rId5"/>
-    <sheet name="09_09_17" sheetId="6" r:id="rId6"/>
+    <sheet name="14_09_17" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'09_09_17'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'14_09_17'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25_08_17'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'31_08_17'!$A$2:$F$2</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="410">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1012,12 +1012,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>852-9097486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MESA REDONDA </t>
-  </si>
-  <si>
     <t>851-SF92CHO</t>
   </si>
   <si>
@@ -1072,15 +1066,9 @@
     <t>605-90114684</t>
   </si>
   <si>
-    <t>852-NA150340CA</t>
-  </si>
-  <si>
     <t xml:space="preserve">MESA P/CENTRO </t>
   </si>
   <si>
-    <t>852-CT3346</t>
-  </si>
-  <si>
     <t xml:space="preserve">JOYERO GRANDE </t>
   </si>
   <si>
@@ -1114,30 +1102,15 @@
     <t>801-M030RD</t>
   </si>
   <si>
-    <t>MOTO P/NIÑO COLOR ROJP 99X49X66 CM</t>
-  </si>
-  <si>
-    <t>D1-78996</t>
-  </si>
-  <si>
-    <t>33364</t>
-  </si>
-  <si>
     <t>CANDELABRO PEQUEÑO</t>
   </si>
   <si>
     <t xml:space="preserve">CUADROS MEDIANOS </t>
   </si>
   <si>
-    <t>D1-81910</t>
-  </si>
-  <si>
     <t>754-90100046</t>
   </si>
   <si>
-    <t>CUADRO ORQUIDES</t>
-  </si>
-  <si>
     <t>754-90116784</t>
   </si>
   <si>
@@ -1150,9 +1123,6 @@
     <t>852-MA150340CA</t>
   </si>
   <si>
-    <t xml:space="preserve">MESA DE VIDRIO P/CENTRO </t>
-  </si>
-  <si>
     <t>801-58867V</t>
   </si>
   <si>
@@ -1180,7 +1150,121 @@
     <t xml:space="preserve">SILLA PLEGABLE BEIGE </t>
   </si>
   <si>
-    <t>D1-78530</t>
+    <t xml:space="preserve">LAMPARA P/TECHO 5 BOMBILLOS </t>
+  </si>
+  <si>
+    <t>6904BR-5H</t>
+  </si>
+  <si>
+    <t>4513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OJO DE BUEY </t>
+  </si>
+  <si>
+    <t>6732</t>
+  </si>
+  <si>
+    <t>6496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA P/MESA P/NIÑOS </t>
+  </si>
+  <si>
+    <t>3405W-V</t>
+  </si>
+  <si>
+    <t>7204</t>
+  </si>
+  <si>
+    <t>LAMPARA INDISTRIAL P/TECHO</t>
+  </si>
+  <si>
+    <t>8410-5</t>
+  </si>
+  <si>
+    <t>ABE56TECHO</t>
+  </si>
+  <si>
+    <t>ABANICO PARA TECHO 56"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABINETE BLANCO PARA COCINA </t>
+  </si>
+  <si>
+    <t>SILLA P/BARBERIA</t>
+  </si>
+  <si>
+    <t>AL-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMOHADA PEQUEÑA </t>
+  </si>
+  <si>
+    <t>AL-M</t>
+  </si>
+  <si>
+    <t>AL-G</t>
+  </si>
+  <si>
+    <t>ALMOHADA MEDIANA</t>
+  </si>
+  <si>
+    <t>ALMOHADA GRANDE</t>
+  </si>
+  <si>
+    <t>MUEBLE P/TV</t>
+  </si>
+  <si>
+    <t>CANDELABRO (COPA)</t>
+  </si>
+  <si>
+    <t>7453080115394R</t>
+  </si>
+  <si>
+    <t>SILLA PLEGABLE COLOR ROJO</t>
+  </si>
+  <si>
+    <t>851-JMJ0326A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXISTENTE </t>
+  </si>
+  <si>
+    <t>852-NA150340CA1</t>
+  </si>
+  <si>
+    <t>852-CT334G</t>
+  </si>
+  <si>
+    <t>------------</t>
+  </si>
+  <si>
+    <t>MOTO P/NIÑO COLOR ROJO 99X49X66 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-78996 </t>
+  </si>
+  <si>
+    <t>704-33364</t>
+  </si>
+  <si>
+    <t>604-81910</t>
+  </si>
+  <si>
+    <t>CUADRO ORQUIDIAS</t>
+  </si>
+  <si>
+    <t>MESA DE VIDRIO P/CENTRO 1100X600X450</t>
+  </si>
+  <si>
+    <t>CR-131</t>
+  </si>
+  <si>
+    <t>5413/571</t>
+  </si>
+  <si>
+    <t>861-HL313051</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,6 +1356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1300,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1335,18 +1425,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightDown">
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill patternType="lightDown">
@@ -1470,14 +1562,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
@@ -1521,14 +1605,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
@@ -1560,14 +1636,6 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1605,6 +1673,30 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2421,10 +2513,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3591,13 +3683,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4058,23 +4150,23 @@
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="31"/>
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="35"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4636,24 +4728,24 @@
   </sheetData>
   <autoFilter ref="A1:F1">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1" dxfId="25"/>
+      <sortCondition sortBy="cellColor" ref="C1" dxfId="34"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4943,31 +5035,31 @@
   </sheetData>
   <autoFilter ref="A2:F2">
     <sortState ref="A3:F17">
-      <sortCondition sortBy="cellColor" ref="C2" dxfId="18"/>
+      <sortCondition sortBy="cellColor" ref="C2" dxfId="33"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4976,22 +5068,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5011,18 +5103,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="28">
+        <v>1450</v>
+      </c>
+      <c r="H2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>327</v>
       </c>
@@ -5033,77 +5134,94 @@
         <v>1</v>
       </c>
       <c r="F3" s="24">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="24">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="24">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="24">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="30">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="28">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>338</v>
       </c>
@@ -5114,389 +5232,717 @@
         <v>1</v>
       </c>
       <c r="F9" s="24">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="24">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="30">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
         <v>13.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="30">
+        <v>5</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="17">
+        <v>6</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="17">
+        <v>3</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="17">
+        <v>4</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="28">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="30">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="28">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="24">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" t="s">
-        <v>352</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="24">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D37" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="C20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="24">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="C23" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="F23" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D24">
+      <c r="E37" s="8"/>
+      <c r="F37" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="17">
         <v>3</v>
       </c>
-      <c r="F24" s="24">
+      <c r="E38" s="17"/>
+      <c r="F38" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="F25" s="24">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="28">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="30">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45" s="17">
+        <v>3</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="30">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="30">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="28">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="28">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="28">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>393</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C52" t="s">
+        <v>395</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="24">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="C27" t="s">
-        <v>368</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="C28" t="s">
-        <v>308</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C29" t="s">
-        <v>371</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="C30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="24">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="C32" t="s">
-        <v>375</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="24">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="C33" t="s">
-        <v>377</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="24">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C34" t="s">
-        <v>379</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>380</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="C36" t="s">
-        <v>348</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="24">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A1:A15 A23:A1048576 A17:A21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -20,7 +20,7 @@
     <sheet name="14_09_17" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'14_09_17'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'14_09_17'!$A$1:$F$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25_08_17'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'31_08_17'!$A$2:$F$2</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="409">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1235,9 +1235,6 @@
   </si>
   <si>
     <t>852-CT334G</t>
-  </si>
-  <si>
-    <t>------------</t>
   </si>
   <si>
     <t>MOTO P/NIÑO COLOR ROJO 99X49X66 CM</t>
@@ -1438,11 +1435,69 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill patternType="lightDown">
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA9D08E"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1512,51 +1567,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1605,6 +1618,14 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
@@ -1636,6 +1657,14 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1673,30 +1702,6 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2513,10 +2518,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3683,13 +3688,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4150,23 +4155,23 @@
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="35"/>
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="31"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4177,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4630,92 +4635,48 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
+      <c r="A28" s="20"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>297</v>
-      </c>
+      <c r="A29" s="20"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4">
-        <v>39.799999999999997</v>
-      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
+      <c r="A30" s="20"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4">
-        <v>45</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>300</v>
-      </c>
+      <c r="A31" s="20"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>302</v>
-      </c>
+      <c r="A32" s="20"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4">
-        <v>125</v>
-      </c>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>304</v>
-      </c>
+      <c r="A33" s="20"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4">
-        <v>145</v>
-      </c>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -4728,24 +4689,24 @@
   </sheetData>
   <autoFilter ref="A1:F1">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1" dxfId="34"/>
+      <sortCondition sortBy="cellColor" ref="C1" dxfId="25"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -5035,31 +4996,31 @@
   </sheetData>
   <autoFilter ref="A2:F2">
     <sortState ref="A3:F17">
-      <sortCondition sortBy="cellColor" ref="C2" dxfId="33"/>
+      <sortCondition sortBy="cellColor" ref="C2" dxfId="18"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -5070,8 +5031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5124,17 +5085,19 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="24">
-        <v>1100</v>
+      <c r="A3" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="28">
+        <v>1200</v>
       </c>
       <c r="H3" t="s">
         <v>397</v>
@@ -5142,738 +5105,734 @@
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="30">
-        <v>65</v>
+      <c r="A4" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="28">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="30">
-        <v>195</v>
+      <c r="A5" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="28">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="30">
-        <v>238</v>
+      <c r="A6" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="28" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="30">
-        <v>39</v>
+      <c r="A7" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="28">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="28">
-        <v>1200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1298</v>
+      <c r="A9" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="28">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="30">
-        <v>13.5</v>
+      <c r="A10" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="28">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="30">
-        <v>160</v>
+      <c r="A11" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="28">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="28">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="28">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="30">
-        <v>85</v>
+      <c r="A14" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="28">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="30">
-        <v>20</v>
-      </c>
+      <c r="A15" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="17">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17">
-        <v>13.5</v>
+      <c r="A16" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="28">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="30">
+      <c r="A17" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="8">
         <v>5</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>400</v>
-      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="28">
+        <v>4</v>
+      </c>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="30">
-        <v>40</v>
+      <c r="A18" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>352</v>
+        <v>104</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="28" t="s">
-        <v>353</v>
+      <c r="F19" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="28">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="30">
-        <v>19</v>
+      <c r="A21" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="28">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="A22" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="28">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="28">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="28">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="30">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="30">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="17">
-        <v>3</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="17">
-        <v>4</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="30">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="28">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="28">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="30">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="28">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="28"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="30">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D34" s="8">
-        <v>2</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="28">
-        <v>35</v>
+      <c r="A34" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="30">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>37</v>
+      <c r="A35" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
-        <v>344</v>
+        <v>7</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="30">
-        <v>20</v>
+      <c r="F35" s="17">
+        <v>13.5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="30">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D37" s="8">
-        <v>5</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="28">
-        <v>4</v>
+      <c r="A37" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="30">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D38" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="30">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="28">
+      <c r="A39" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="17">
+        <v>6</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="17">
+        <v>3</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="8">
-        <v>2</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="28">
-        <v>15</v>
-      </c>
-    </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="28">
-        <v>35</v>
+      <c r="A41" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="17">
+        <v>4</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="30">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="28">
+      <c r="A42" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="30">
         <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="D43" s="17">
         <v>1</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="30">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="D44" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="30">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17" t="s">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="D45" s="17">
         <v>3</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="30">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" s="17">
+        <v>2</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="30">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="17">
+        <v>3</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="30">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="30">
         <v>498</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="28">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D48" s="8">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="28">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D49" s="8">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="28">
-        <v>11.5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5893,35 +5852,43 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="24">
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="30">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="24">
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="30">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F52">
+    <sortState ref="A2:F52">
+      <sortCondition sortBy="cellColor" ref="C1:C52" dxfId="8"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>

--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin Siles\Documents\GitHub\MH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="25_08_17" sheetId="3" r:id="rId4"/>
     <sheet name="31_08_17" sheetId="5" r:id="rId5"/>
     <sheet name="14_09_17" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'14_09_17'!$A$1:$F$52</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="413">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1262,6 +1263,18 @@
   </si>
   <si>
     <t>861-HL313051</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>IU-11LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION UNIVERSAL ROYAL 11 LTS</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;C$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,6 +1300,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1387,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1431,6 +1452,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2532,7 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -3705,13 +3737,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
@@ -3739,7 +3771,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="34" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="14"/>
@@ -3753,13 +3785,19 @@
       <c r="F2" s="14">
         <v>85</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>409</v>
+      </c>
       <c r="I2" s="13"/>
       <c r="J2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="34" t="s">
         <v>216</v>
       </c>
       <c r="B3" s="14"/>
@@ -3773,13 +3811,19 @@
       <c r="F3" s="14">
         <v>145</v>
       </c>
+      <c r="G3" s="33">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>409</v>
+      </c>
       <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="34" t="s">
         <v>220</v>
       </c>
       <c r="B4" s="14"/>
@@ -3793,9 +3837,15 @@
       <c r="F4" s="14">
         <v>135</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="34" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="14"/>
@@ -3809,9 +3859,15 @@
       <c r="F5" s="14">
         <v>125</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="34" t="s">
         <v>223</v>
       </c>
       <c r="B6" s="14"/>
@@ -3825,9 +3881,15 @@
       <c r="F6" s="14">
         <v>298</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="35" t="s">
         <v>209</v>
       </c>
       <c r="B7" s="12"/>
@@ -3841,6 +3903,12 @@
       <c r="F7" s="12">
         <v>59</v>
       </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -3857,9 +3925,13 @@
       <c r="F8" s="13">
         <v>350</v>
       </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B9" s="13"/>
@@ -3873,9 +3945,15 @@
       <c r="F9" s="13">
         <v>165</v>
       </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B10" s="13"/>
@@ -3889,9 +3967,15 @@
       <c r="F10" s="13">
         <v>46</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B11" s="13"/>
@@ -3905,9 +3989,15 @@
       <c r="F11" s="13">
         <v>45</v>
       </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B12" s="13"/>
@@ -3919,9 +4009,15 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B13" s="13"/>
@@ -3933,9 +4029,15 @@
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="13"/>
@@ -3947,9 +4049,15 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>248</v>
       </c>
       <c r="B15" s="13"/>
@@ -3961,9 +4069,15 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>229</v>
       </c>
       <c r="B16" s="13"/>
@@ -3977,9 +4091,15 @@
       <c r="F16" s="13">
         <v>488</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>231</v>
       </c>
       <c r="B17" s="13"/>
@@ -3993,9 +4113,15 @@
       <c r="F17" s="13">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>249</v>
       </c>
       <c r="B18" s="13"/>
@@ -4009,9 +4135,15 @@
       <c r="F18" s="13">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B19" s="13"/>
@@ -4025,9 +4157,15 @@
       <c r="F19" s="13">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>205</v>
       </c>
       <c r="B20" s="13"/>
@@ -4039,9 +4177,15 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="13"/>
@@ -4055,9 +4199,15 @@
       <c r="F21" s="13">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>237</v>
       </c>
       <c r="B22" s="13"/>
@@ -4071,9 +4221,15 @@
       <c r="F22" s="13">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B23" s="13"/>
@@ -4087,9 +4243,15 @@
       <c r="F23" s="13">
         <v>195</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>241</v>
       </c>
       <c r="B24" s="13"/>
@@ -4103,9 +4265,15 @@
       <c r="F24" s="13">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B25" s="13"/>
@@ -4119,9 +4287,15 @@
       <c r="F25" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B26" s="13"/>
@@ -4135,9 +4309,15 @@
       <c r="F26" s="13">
         <v>235</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B27" s="13"/>
@@ -4150,6 +4330,12 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13">
         <v>158</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4182,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,6 +4417,12 @@
       <c r="F2" s="17">
         <v>33</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4245,6 +4437,12 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4261,6 +4459,12 @@
       <c r="F4" s="17">
         <v>210</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>410</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="J4" t="s">
         <v>293</v>
@@ -4279,6 +4483,12 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>410</v>
+      </c>
       <c r="I5" s="17"/>
       <c r="J5" t="s">
         <v>294</v>
@@ -4297,6 +4507,12 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -4313,6 +4529,12 @@
       <c r="F7" s="17">
         <v>23</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -4329,6 +4551,12 @@
       <c r="F8" s="17">
         <v>108</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
@@ -4345,6 +4573,12 @@
       <c r="F9" s="17">
         <v>98</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -4361,6 +4595,12 @@
       <c r="F10" s="16">
         <v>365</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -4377,6 +4617,12 @@
       <c r="F11" s="16">
         <v>6</v>
       </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -4393,6 +4639,12 @@
       <c r="F12" s="16">
         <v>7</v>
       </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -4409,6 +4661,12 @@
       <c r="F13" s="16">
         <v>27</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -4425,6 +4683,12 @@
       <c r="F14" s="16">
         <v>17</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -4441,6 +4705,12 @@
       <c r="F15" s="16">
         <v>16</v>
       </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -4457,8 +4727,14 @@
       <c r="F16" s="16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>264</v>
       </c>
@@ -4473,8 +4749,14 @@
       <c r="F17" s="16">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>266</v>
       </c>
@@ -4489,8 +4771,14 @@
       <c r="F18" s="16">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>268</v>
       </c>
@@ -4505,8 +4793,14 @@
       <c r="F19" s="16">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>270</v>
       </c>
@@ -4521,8 +4815,14 @@
       <c r="F20" s="16">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>274</v>
       </c>
@@ -4537,8 +4837,14 @@
       <c r="F21" s="16">
         <v>480</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>276</v>
       </c>
@@ -4553,8 +4859,14 @@
       <c r="F22" s="16">
         <v>198</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>278</v>
       </c>
@@ -4569,8 +4881,14 @@
       <c r="F23" s="16">
         <v>158</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>282</v>
       </c>
@@ -4585,8 +4903,14 @@
       <c r="F24" s="16">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>284</v>
       </c>
@@ -4601,8 +4925,14 @@
       <c r="F25" s="16">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>285</v>
       </c>
@@ -4617,8 +4947,14 @@
       <c r="F26" s="16">
         <v>298</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>287</v>
       </c>
@@ -4633,13 +4969,19 @@
       <c r="F27" s="16">
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4647,14 +4989,14 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4662,7 +5004,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4718,7 +5060,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,7 +5373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -5914,4 +6256,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="25_08_17" sheetId="3" r:id="rId4"/>
     <sheet name="31_08_17" sheetId="5" r:id="rId5"/>
     <sheet name="14_09_17" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
+    <sheet name="25_09_17" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'14_09_17'!$A$1:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'14_09_17'!$A$1:$D$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25_08_17'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'31_08_17'!$A$2:$F$2</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="520">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1013,9 +1013,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>851-SF92CHO</t>
-  </si>
-  <si>
     <t>JUEGO DE SOFA DE TRES PIEZAS</t>
   </si>
   <si>
@@ -1058,9 +1055,6 @@
     <t xml:space="preserve">SOFA EN L 1 PIEZA </t>
   </si>
   <si>
-    <t>72-90139248</t>
-  </si>
-  <si>
     <t xml:space="preserve">RIEL PARA CORTINA </t>
   </si>
   <si>
@@ -1097,9 +1091,6 @@
     <t>ABANICO PARA TECHO</t>
   </si>
   <si>
-    <t>139_98</t>
-  </si>
-  <si>
     <t>801-M030RD</t>
   </si>
   <si>
@@ -1232,9 +1223,6 @@
     <t xml:space="preserve">EXISTENTE </t>
   </si>
   <si>
-    <t>852-NA150340CA1</t>
-  </si>
-  <si>
     <t>852-CT334G</t>
   </si>
   <si>
@@ -1259,22 +1247,355 @@
     <t>CR-131</t>
   </si>
   <si>
-    <t>5413/571</t>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>IU-11LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION UNIVERSAL ROYAL 11 LTS</t>
+  </si>
+  <si>
+    <t>856-149HM00153</t>
+  </si>
+  <si>
+    <t>Gabinete para Cocina</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion </t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>851-SF192CHO</t>
+  </si>
+  <si>
+    <t>722-90139248</t>
+  </si>
+  <si>
+    <t>139.98</t>
+  </si>
+  <si>
+    <t>861-HL313050</t>
+  </si>
+  <si>
+    <t>5413/5</t>
+  </si>
+  <si>
+    <t>852-9097486</t>
+  </si>
+  <si>
+    <t>Mesa Redonda</t>
+  </si>
+  <si>
+    <t>Silla para Oficina</t>
+  </si>
+  <si>
+    <t>Joyero Grande</t>
+  </si>
+  <si>
+    <t>856-90125227</t>
+  </si>
+  <si>
+    <t>Archivador Gris 4 gavetas</t>
+  </si>
+  <si>
+    <t>304B</t>
+  </si>
+  <si>
+    <t>4765-3H</t>
+  </si>
+  <si>
+    <t>FN-40T02WR</t>
+  </si>
+  <si>
+    <t>ZY-1780</t>
+  </si>
+  <si>
+    <t>856-DR883150</t>
+  </si>
+  <si>
+    <t>718-33324</t>
+  </si>
+  <si>
+    <t>718-33322</t>
+  </si>
+  <si>
+    <t>851-9096266</t>
+  </si>
+  <si>
+    <t>856-90125254</t>
+  </si>
+  <si>
+    <t>KD-042</t>
+  </si>
+  <si>
+    <t>Lampara para techo de 3 bombillos</t>
+  </si>
+  <si>
+    <t>Abanico para techo Ericsson</t>
+  </si>
+  <si>
+    <t>Cuadro</t>
+  </si>
+  <si>
+    <t>Joyero pequeño</t>
+  </si>
+  <si>
+    <t>Abanico de torre Sankey</t>
+  </si>
+  <si>
+    <t>Escritorio Gris</t>
+  </si>
+  <si>
+    <t>Planta Artificial</t>
+  </si>
+  <si>
+    <t>Cuadro de orquidea</t>
+  </si>
+  <si>
+    <t>Planta Artificial 34cm</t>
+  </si>
+  <si>
+    <t>Silla de Espera de 3 puestos</t>
+  </si>
+  <si>
+    <t>Archivador de 2 Gavetas</t>
+  </si>
+  <si>
+    <t>Archivador de 2 Gavetas con Vidrio</t>
   </si>
   <si>
     <t>861-HL313051</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>IU-11LT</t>
-  </si>
-  <si>
-    <t>OLLA DE PRESION UNIVERSAL ROYAL 11 LTS</t>
+    <t>7500H-PK</t>
+  </si>
+  <si>
+    <t>ST-S1229CPU</t>
+  </si>
+  <si>
+    <t>W-150B</t>
+  </si>
+  <si>
+    <t>BLD49-1260</t>
+  </si>
+  <si>
+    <t>754-31344</t>
+  </si>
+  <si>
+    <t>721-90140623</t>
+  </si>
+  <si>
+    <t>754-32009</t>
+  </si>
+  <si>
+    <t>853-SL036</t>
+  </si>
+  <si>
+    <t>GPLUS</t>
+  </si>
+  <si>
+    <t>Silla para Barberia</t>
+  </si>
+  <si>
+    <t>Mesa para Centro</t>
+  </si>
+  <si>
+    <t>Lampara para techo rosada</t>
+  </si>
+  <si>
+    <t>Mesa para Pc</t>
+  </si>
+  <si>
+    <t>Mesa para Pc Rojo vino</t>
+  </si>
+  <si>
+    <t>Escritorio</t>
+  </si>
+  <si>
+    <t>Cuadro Pequeño</t>
+  </si>
+  <si>
+    <t>Porta retrato</t>
+  </si>
+  <si>
+    <t>Cuadro para cocina Vinos</t>
+  </si>
+  <si>
+    <t>Dispensador de Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001# </t>
+  </si>
+  <si>
+    <t>MD2-1AC</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>861-450</t>
+  </si>
+  <si>
+    <t>FC001-N</t>
+  </si>
+  <si>
+    <t>853-2312H-N</t>
+  </si>
+  <si>
+    <t>853-SL1428RO</t>
+  </si>
+  <si>
+    <t>853-901CBA</t>
+  </si>
+  <si>
+    <t>853-90133083</t>
+  </si>
+  <si>
+    <t>853-FC001ARM</t>
+  </si>
+  <si>
+    <t>853-90122641</t>
+  </si>
+  <si>
+    <t>861-90144405</t>
+  </si>
+  <si>
+    <t>843-SL1022</t>
+  </si>
+  <si>
+    <t>Silla para oficina 4X51X77cm</t>
+  </si>
+  <si>
+    <t>Mueble para Tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silla para Oficina </t>
+  </si>
+  <si>
+    <t>Mesa de Aluminio</t>
+  </si>
+  <si>
+    <t>Silla metalica de 2 Puestos</t>
+  </si>
+  <si>
+    <t>Silla para Manicure</t>
+  </si>
+  <si>
+    <t>mesas de noche</t>
+  </si>
+  <si>
+    <t>cama</t>
+  </si>
+  <si>
+    <t>ropero</t>
+  </si>
+  <si>
+    <t>comoda</t>
+  </si>
+  <si>
+    <t>Organizador para Salon</t>
+  </si>
+  <si>
+    <t>Lampara para Mesa</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>853-90133066</t>
+  </si>
+  <si>
+    <t>803-7029968</t>
+  </si>
+  <si>
+    <t>861-90144400</t>
+  </si>
+  <si>
+    <t>604-81810</t>
+  </si>
+  <si>
+    <t>604-83733</t>
+  </si>
+  <si>
+    <t>853-90126606</t>
+  </si>
+  <si>
+    <t>604-80980</t>
+  </si>
+  <si>
+    <t>604-90135102</t>
+  </si>
+  <si>
+    <t>604-80986</t>
+  </si>
+  <si>
+    <t>853-9097483</t>
+  </si>
+  <si>
+    <t>D5-9929</t>
+  </si>
+  <si>
+    <t>801-84520</t>
+  </si>
+  <si>
+    <t>801-84526</t>
+  </si>
+  <si>
+    <t>801-84523</t>
+  </si>
+  <si>
+    <t>801-84519</t>
+  </si>
+  <si>
+    <t>053-0419823</t>
+  </si>
+  <si>
+    <t>874-83520</t>
+  </si>
+  <si>
+    <t>Deslizador para Niño</t>
+  </si>
+  <si>
+    <t>Taburete para Salon</t>
+  </si>
+  <si>
+    <t>Lampara para mesa</t>
+  </si>
+  <si>
+    <t>Escritorio para Oficina</t>
+  </si>
+  <si>
+    <t>Lampara para Escritorio</t>
+  </si>
+  <si>
+    <t>Patines Ajustables 27-30</t>
+  </si>
+  <si>
+    <t>Patines 35, 36, 37</t>
+  </si>
+  <si>
+    <t>Patines Ajustables 31-42</t>
+  </si>
+  <si>
+    <t>Paraguas para Niña 48cm</t>
+  </si>
+  <si>
+    <t>Cuadro para Sala</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1380,6 +1701,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1408,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1444,14 +1771,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1463,73 +1784,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
     <dxf>
       <fill>
-        <patternFill patternType="lightDown">
-          <bgColor theme="7" tint="0.59996337778862885"/>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill patternType="lightDown">
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1599,9 +1887,51 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1650,14 +1980,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
@@ -1689,14 +2011,6 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1734,6 +2048,38 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2550,10 +2896,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3720,13 +4066,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -3738,7 +4084,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3771,7 +4117,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="14"/>
@@ -3788,8 +4134,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>409</v>
+      <c r="H2" s="32" t="s">
+        <v>403</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" t="s">
@@ -3797,7 +4143,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>216</v>
       </c>
       <c r="B3" s="14"/>
@@ -3811,11 +4157,11 @@
       <c r="F3" s="14">
         <v>145</v>
       </c>
-      <c r="G3" s="33">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>409</v>
+      <c r="G3" s="29">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>403</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" t="s">
@@ -3823,7 +4169,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>220</v>
       </c>
       <c r="B4" s="14"/>
@@ -3840,12 +4186,12 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>409</v>
+      <c r="H4" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="14"/>
@@ -3862,12 +4208,12 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="36" t="s">
-        <v>409</v>
+      <c r="H5" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>223</v>
       </c>
       <c r="B6" s="14"/>
@@ -3884,12 +4230,12 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>409</v>
+      <c r="H6" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="31" t="s">
         <v>209</v>
       </c>
       <c r="B7" s="12"/>
@@ -3906,8 +4252,8 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>409</v>
+      <c r="H7" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3926,8 +4272,8 @@
         <v>350</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="36" t="s">
-        <v>409</v>
+      <c r="H8" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3948,8 +4294,8 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>409</v>
+      <c r="H9" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3970,8 +4316,8 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>409</v>
+      <c r="H10" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3992,8 +4338,8 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>409</v>
+      <c r="H11" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4012,8 +4358,8 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>409</v>
+      <c r="H12" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4029,11 +4375,11 @@
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="37">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>409</v>
+      <c r="G13" s="33">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4052,8 +4398,8 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>409</v>
+      <c r="H14" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4072,8 +4418,8 @@
       <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>409</v>
+      <c r="H15" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4094,8 +4440,8 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="36" t="s">
-        <v>409</v>
+      <c r="H16" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4116,8 +4462,8 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="36" t="s">
-        <v>409</v>
+      <c r="H17" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4138,8 +4484,8 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="36" t="s">
-        <v>409</v>
+      <c r="H18" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4160,8 +4506,8 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="36" t="s">
-        <v>409</v>
+      <c r="H19" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4180,8 +4526,8 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20" s="36" t="s">
-        <v>409</v>
+      <c r="H20" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4202,8 +4548,8 @@
       <c r="G21">
         <v>7</v>
       </c>
-      <c r="H21" s="36" t="s">
-        <v>409</v>
+      <c r="H21" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4224,8 +4570,8 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="36" t="s">
-        <v>409</v>
+      <c r="H22" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4246,8 +4592,8 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="36" t="s">
-        <v>409</v>
+      <c r="H23" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4268,8 +4614,8 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="36" t="s">
-        <v>409</v>
+      <c r="H24" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4290,8 +4636,8 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="36" t="s">
-        <v>409</v>
+      <c r="H25" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4312,8 +4658,8 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="36" t="s">
-        <v>409</v>
+      <c r="H26" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4334,30 +4680,30 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="36" t="s">
-        <v>409</v>
+      <c r="H27" s="32" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="31"/>
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="37"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4368,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4420,8 +4766,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>410</v>
+      <c r="H2" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4440,8 +4786,8 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>410</v>
+      <c r="H3" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4462,8 +4808,8 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>410</v>
+      <c r="H4" s="32" t="s">
+        <v>404</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" t="s">
@@ -4486,8 +4832,8 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="36" t="s">
-        <v>410</v>
+      <c r="H5" s="32" t="s">
+        <v>404</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" t="s">
@@ -4510,8 +4856,8 @@
       <c r="G6">
         <v>10</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>410</v>
+      <c r="H6" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4532,8 +4878,8 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>410</v>
+      <c r="H7" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4554,8 +4900,8 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>410</v>
+      <c r="H8" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4576,8 +4922,8 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>410</v>
+      <c r="H9" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4598,8 +4944,8 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>410</v>
+      <c r="H10" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4620,8 +4966,8 @@
       <c r="G11">
         <v>8</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>410</v>
+      <c r="H11" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4642,8 +4988,8 @@
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>410</v>
+      <c r="H12" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4664,8 +5010,8 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>410</v>
+      <c r="H13" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4686,8 +5032,8 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>410</v>
+      <c r="H14" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4708,8 +5054,8 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>410</v>
+      <c r="H15" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4730,8 +5076,8 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16" s="36" t="s">
-        <v>410</v>
+      <c r="H16" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4752,8 +5098,8 @@
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" s="36" t="s">
-        <v>410</v>
+      <c r="H17" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4774,8 +5120,8 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="36" t="s">
-        <v>410</v>
+      <c r="H18" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4796,8 +5142,8 @@
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="36" t="s">
-        <v>410</v>
+      <c r="H19" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4818,8 +5164,8 @@
       <c r="G20">
         <v>7</v>
       </c>
-      <c r="H20" s="36" t="s">
-        <v>410</v>
+      <c r="H20" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4840,8 +5186,8 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="36" t="s">
-        <v>410</v>
+      <c r="H21" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4862,8 +5208,8 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="36" t="s">
-        <v>410</v>
+      <c r="H22" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4884,8 +5230,8 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="36" t="s">
-        <v>410</v>
+      <c r="H23" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,8 +5252,8 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="36" t="s">
-        <v>410</v>
+      <c r="H24" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4928,8 +5274,8 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="36" t="s">
-        <v>410</v>
+      <c r="H25" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4950,8 +5296,8 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="36" t="s">
-        <v>410</v>
+      <c r="H26" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4972,8 +5318,8 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="36" t="s">
-        <v>410</v>
+      <c r="H27" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5031,24 +5377,24 @@
   </sheetData>
   <autoFilter ref="A1:F1">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1" dxfId="25"/>
+      <sortCondition sortBy="cellColor" ref="C1" dxfId="36"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -5057,10 +5403,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,9 +5416,10 @@
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -5092,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>296</v>
       </c>
@@ -5107,12 +5454,18 @@
       <c r="F3" s="13">
         <v>185</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>297</v>
       </c>
@@ -5127,12 +5480,18 @@
       <c r="F4" s="13">
         <v>39.799999999999997</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>84</v>
       </c>
@@ -5147,8 +5506,14 @@
       <c r="F5" s="13">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>304</v>
       </c>
@@ -5163,8 +5528,14 @@
       <c r="F6" s="13">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>311</v>
       </c>
@@ -5179,8 +5550,14 @@
       <c r="F7" s="13">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>312</v>
       </c>
@@ -5195,8 +5572,14 @@
       <c r="F8" s="13">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>300</v>
       </c>
@@ -5209,8 +5592,14 @@
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>302</v>
       </c>
@@ -5225,8 +5614,14 @@
       <c r="F10" s="23">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>307</v>
       </c>
@@ -5239,8 +5634,14 @@
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>321</v>
       </c>
@@ -5253,8 +5654,14 @@
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>309</v>
       </c>
@@ -5269,8 +5676,14 @@
       <c r="F13" s="23">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>315</v>
       </c>
@@ -5283,8 +5696,14 @@
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>38</v>
       </c>
@@ -5297,8 +5716,14 @@
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>317</v>
       </c>
@@ -5313,8 +5738,14 @@
       <c r="F16" s="23">
         <v>298</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>319</v>
       </c>
@@ -5329,8 +5760,14 @@
       <c r="F17" s="23">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>324</v>
       </c>
@@ -5338,7 +5775,7 @@
   </sheetData>
   <autoFilter ref="A2:F2">
     <sortState ref="A3:F17">
-      <sortCondition sortBy="cellColor" ref="C2" dxfId="18"/>
+      <sortCondition sortBy="cellColor" ref="C2" dxfId="35"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A3:A8">
@@ -5371,866 +5808,899 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39">
+        <v>5</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39">
+        <v>65</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39">
+        <v>13.5</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39">
+        <v>85</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40">
+        <v>13.5</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>40</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>160</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39">
+        <v>20</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
+        <v>195</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>39</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <v>238</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>148</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>139</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>135</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
+        <v>98</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1450</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1298</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1298</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="39">
+        <v>135</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="39">
+        <v>15</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D24" s="39">
+        <v>32</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6</v>
+      </c>
+      <c r="D25" s="39">
+        <v>19</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="39">
+        <v>32</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="39">
+        <v>498</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="39">
+        <v>230</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="39">
+        <v>48</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="39">
+        <v>98</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="39">
+        <v>35</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39">
+        <v>8.5</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="39">
+        <v>9.5</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="39">
+        <v>11.5</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="39">
+        <v>98</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="39">
+        <v>31</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" s="39">
+        <v>35</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3</v>
+      </c>
+      <c r="D38" s="39">
+        <v>145</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="39">
+        <v>15</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="39">
+        <v>15</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="39">
+        <v>14</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="28">
-        <v>1450</v>
-      </c>
-      <c r="H2" t="s">
-        <v>323</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="28">
-        <v>1200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>397</v>
-      </c>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="D42" s="39">
+        <v>4</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="39">
+        <v>95</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="39">
+        <v>34</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="39">
+        <v>35</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="39">
+        <v>35</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="28">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="28">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+      <c r="B48" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="C48" s="4">
+        <v>6</v>
+      </c>
+      <c r="D48" s="39">
+        <v>10</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="39">
+        <v>20</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
+      <c r="B50" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="28">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="39">
+        <v>34</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="28">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="28">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="28">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="39">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="28">
-        <v>4</v>
-      </c>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="28">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="28">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="28">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="28">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="24">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="D26" s="17">
-        <v>1</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D27" s="17">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="30">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="30">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" t="s">
-        <v>339</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="D31" s="17">
-        <v>1</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="30">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="30">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="17">
-        <v>1</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="30">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D34" s="17">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D37" s="17">
-        <v>1</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="17">
-        <v>1</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D39" s="17">
-        <v>6</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="D40" s="17">
-        <v>3</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="17">
-        <v>4</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="30">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="17">
-        <v>1</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="30">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D43" s="17">
-        <v>1</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="D44" s="17">
-        <v>1</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="30">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="17">
-        <v>3</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D46" s="17">
-        <v>1</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="30">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D47" s="17">
-        <v>2</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="30">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D48" s="17">
-        <v>3</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="30">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D49" s="17">
-        <v>1</v>
-      </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="30">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D50" s="17">
-        <v>1</v>
-      </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="30">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="D51" s="17">
-        <v>1</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="D52" s="17">
-        <v>1</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="30">
-        <v>32</v>
+      <c r="E51" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F52">
-    <sortState ref="A2:F52">
-      <sortCondition sortBy="cellColor" ref="C1:C52" dxfId="8"/>
+  <autoFilter ref="A1:D51">
+    <sortState ref="A2:F51">
+      <sortCondition sortBy="cellColor" ref="A1:A51" dxfId="34"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
@@ -6241,51 +6711,1242 @@
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A1:A15 A23:A1048576 A17:A21">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A15 A23:A1048576 A17:A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:D51">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{81214372-231B-4569-A78C-41600218AF42}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{81214372-231B-4569-A78C-41600218AF42}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:D51</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
         <v>38</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="37">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" t="s">
+        <v>463</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="24">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B36" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>481</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" t="s">
+        <v>482</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="B41" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>77.5</v>
+      </c>
+      <c r="I41">
+        <f>J41*K41</f>
+        <v>120</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>1200</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="B42" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>195</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:I44" si="0">J42*K42</f>
+        <v>480</v>
+      </c>
+      <c r="J42">
+        <v>0.4</v>
+      </c>
+      <c r="K42">
+        <v>1200</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="B43" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="J43">
+        <v>0.3</v>
+      </c>
+      <c r="K43">
+        <v>1200</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="B44" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>68</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J44">
+        <v>0.2</v>
+      </c>
+      <c r="K44">
+        <v>1200</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>155</v>
+      </c>
+      <c r="I45">
+        <f>SUM(I41:I44)</f>
+        <v>1200</v>
+      </c>
+      <c r="J45">
+        <f>SUM(J41:J44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="B46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="B47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="B48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="B49" t="s">
+        <v>421</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="B51" t="s">
+        <v>490</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>88</v>
+      </c>
+      <c r="I51" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" t="s">
+        <v>491</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B54" t="s">
+        <v>482</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="24">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B55" t="s">
+        <v>510</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="24">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="B56" t="s">
+        <v>511</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" t="s">
+        <v>512</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="B58" t="s">
+        <v>512</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="B59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B60" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="B61" t="s">
+        <v>491</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B62" t="s">
+        <v>491</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="B63" t="s">
+        <v>513</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="B64" t="s">
+        <v>514</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B65" t="s">
+        <v>515</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="B66" t="s">
+        <v>516</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B67" t="s">
+        <v>517</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="B68" t="s">
+        <v>515</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="B69" t="s">
+        <v>518</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="B70" t="s">
+        <v>519</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D5 B6:D7 B8:C8 C9:C23 D8:D17 B9:B18">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9881DC94-15A1-41F2-80F8-0E32E3E7BFA2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B61 A2:D56 B63:B70 C57:C70">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7B785665-5E7F-4BE7-A5AC-AE855A943F5D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67AEB45B-FDD5-4E88-BB2E-40FC7BBFC51F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E185E69E-2236-4BDA-B0C7-0F0BDDA17213}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9881DC94-15A1-41F2-80F8-0E32E3E7BFA2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D5 B6:D7 B8:C8 C9:C23 D8:D17 B9:B18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7B785665-5E7F-4BE7-A5AC-AE855A943F5D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B58:B61 A2:D56 B63:B70 C57:C70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67AEB45B-FDD5-4E88-BB2E-40FC7BBFC51F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E185E69E-2236-4BDA-B0C7-0F0BDDA17213}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B57</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -5,16 +5,27 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin Siles\Documents\GitHub\MH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="12_08_17" sheetId="2" r:id="rId2"/>
+    <sheet name="23_08_17" sheetId="4" r:id="rId3"/>
+    <sheet name="25_08_17" sheetId="3" r:id="rId4"/>
+    <sheet name="31_08_17" sheetId="5" r:id="rId5"/>
+    <sheet name="14_09_17" sheetId="6" r:id="rId6"/>
+    <sheet name="25_09_17" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'14_09_17'!$A$1:$D$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25_08_17'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'31_08_17'!$A$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="520">
   <si>
     <t>CODIGO</t>
   </si>
@@ -652,6 +663,939 @@
   </si>
   <si>
     <t xml:space="preserve">SILLA COLOR ROJO PARA BAR </t>
+  </si>
+  <si>
+    <t>980-VH015501</t>
+  </si>
+  <si>
+    <t>MONITOR MANUAL PARA PRESION ARTERIAL</t>
+  </si>
+  <si>
+    <t>718-90141108</t>
+  </si>
+  <si>
+    <t>856-AB05CHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESITA DE NOCHE DE DOS GAVETAS </t>
+  </si>
+  <si>
+    <t>853-90122122</t>
+  </si>
+  <si>
+    <t>MUEBLE PARA COMPUTADORA</t>
+  </si>
+  <si>
+    <t>852-PW6038CTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA PARA CAFÉ </t>
+  </si>
+  <si>
+    <t>11725SL/5H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA </t>
+  </si>
+  <si>
+    <t>852-CW002N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA PARA CENTRO </t>
+  </si>
+  <si>
+    <t>852-MA112221</t>
+  </si>
+  <si>
+    <t>704-32209T</t>
+  </si>
+  <si>
+    <t>CANDELABRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLAS PARA ESPERA METALICA DE 3 PUESTOS </t>
+  </si>
+  <si>
+    <t>852-112219AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUADRO </t>
+  </si>
+  <si>
+    <t>ALFOMBRA COLOR CAFÉ  200X300</t>
+  </si>
+  <si>
+    <t>BG-81</t>
+  </si>
+  <si>
+    <t>ESCRITORIO EN L VIDRIO</t>
+  </si>
+  <si>
+    <t>GI-2929-42</t>
+  </si>
+  <si>
+    <t>SOPORTE POLAR PARA TV 37" 48"</t>
+  </si>
+  <si>
+    <t>SILLA PARTA OFICINA NEGRO</t>
+  </si>
+  <si>
+    <t>851-A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA ESPERA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA MESA CONFERENCIA </t>
+  </si>
+  <si>
+    <t>GI-2926</t>
+  </si>
+  <si>
+    <t>SOPORTE PARA TV</t>
+  </si>
+  <si>
+    <t>ST-S1203</t>
+  </si>
+  <si>
+    <t>ECRITORIO DE VIDRIO Y METAL</t>
+  </si>
+  <si>
+    <t>YLQ-3188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIMOTO ELECTRICA </t>
+  </si>
+  <si>
+    <t>856-90125225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCHIVADOR DE 3 DIVISIONES  </t>
+  </si>
+  <si>
+    <t>W-112B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exixtencia </t>
+  </si>
+  <si>
+    <t>Nuevos</t>
+  </si>
+  <si>
+    <t>700-MOD</t>
+  </si>
+  <si>
+    <t>CR-131/GRIS -L2520</t>
+  </si>
+  <si>
+    <t>8097-DA80</t>
+  </si>
+  <si>
+    <t>LAMPARA DE CRISTAL PARA TECHO</t>
+  </si>
+  <si>
+    <t>SOPORTE PARA TV 37" 48"</t>
+  </si>
+  <si>
+    <t>FP20-18</t>
+  </si>
+  <si>
+    <t>SARTEN MARCA DAILY 18 CM</t>
+  </si>
+  <si>
+    <t>FP20-22</t>
+  </si>
+  <si>
+    <t>SARTEN MARCA DAILY 22 CM</t>
+  </si>
+  <si>
+    <t>139-009</t>
+  </si>
+  <si>
+    <t>139-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARTEN MARCA GUTTLEM 28CM </t>
+  </si>
+  <si>
+    <t>IU-2-5LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 2.5LT</t>
+  </si>
+  <si>
+    <t>IU-5LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 5LT</t>
+  </si>
+  <si>
+    <t>IU-9LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 9LT</t>
+  </si>
+  <si>
+    <t>IU-15LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 15LT</t>
+  </si>
+  <si>
+    <t>IU-25LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION MARCA UNIVERSAL ROYAL 25LT</t>
+  </si>
+  <si>
+    <t>A1637025</t>
+  </si>
+  <si>
+    <t>SET DE EDREDON -QUEEN MARCA PALM SPRINGS HOMES</t>
+  </si>
+  <si>
+    <t>TA-1515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCRITORIO EN L </t>
+  </si>
+  <si>
+    <t>MB-1382#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCRITORIO </t>
+  </si>
+  <si>
+    <t>853-90133067</t>
+  </si>
+  <si>
+    <t>SILLA PARA OFICINA</t>
+  </si>
+  <si>
+    <t>851-90133318</t>
+  </si>
+  <si>
+    <t>853-2155HEN</t>
+  </si>
+  <si>
+    <t>9300L-BLKPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA OFICINA </t>
+  </si>
+  <si>
+    <t>851-90133316</t>
+  </si>
+  <si>
+    <t>SILLA PARA BAR</t>
+  </si>
+  <si>
+    <t>853-FC001N</t>
+  </si>
+  <si>
+    <t>856-90125259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOKER DE DOS PUERTAS COLOR GRIS </t>
+  </si>
+  <si>
+    <t>SCH-02</t>
+  </si>
+  <si>
+    <t>MESA PARA CENTRO MDF</t>
+  </si>
+  <si>
+    <t>704-90135296</t>
+  </si>
+  <si>
+    <t>001#</t>
+  </si>
+  <si>
+    <t>CR-131-L2520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA OFICINA COLOR GRIS </t>
+  </si>
+  <si>
+    <t>NUEVOS</t>
+  </si>
+  <si>
+    <t>EXISTENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLLA PARA ESPERA </t>
+  </si>
+  <si>
+    <t>856-90133159</t>
+  </si>
+  <si>
+    <t>704-90129300</t>
+  </si>
+  <si>
+    <t>CANDELABRO BLANCO</t>
+  </si>
+  <si>
+    <t>LAMPARA PARA TECHO 3 BOMBILLOS</t>
+  </si>
+  <si>
+    <t>856-3500000714S</t>
+  </si>
+  <si>
+    <t>GABINETE PARA COCINA</t>
+  </si>
+  <si>
+    <t>G2026-300</t>
+  </si>
+  <si>
+    <t>LAMPARA PARA TECHO</t>
+  </si>
+  <si>
+    <t>856-3500000701S</t>
+  </si>
+  <si>
+    <t>GABINETE P/COCINA</t>
+  </si>
+  <si>
+    <t>LOCKER DE 5 DIV COLOR NEGRO 180X38X45</t>
+  </si>
+  <si>
+    <t>853-3009M</t>
+  </si>
+  <si>
+    <t>SILLA P/ESPERA</t>
+  </si>
+  <si>
+    <t>JS-5967V</t>
+  </si>
+  <si>
+    <t>CARRITO P/NIÑO</t>
+  </si>
+  <si>
+    <t>8048-6</t>
+  </si>
+  <si>
+    <t>8266-5</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO 6 BOMBILLOS</t>
+  </si>
+  <si>
+    <t>LAMPARA P/TECHO 5 BOMBILLOS</t>
+  </si>
+  <si>
+    <t>704-90141431</t>
+  </si>
+  <si>
+    <t>CANDELABRO DORADO</t>
+  </si>
+  <si>
+    <t>BLPP-5005-1500</t>
+  </si>
+  <si>
+    <t>ESCRITORIO P/OFICINA</t>
+  </si>
+  <si>
+    <t>855-AB04NC</t>
+  </si>
+  <si>
+    <t>MUEBLE PARA TV</t>
+  </si>
+  <si>
+    <t>851-YSA30010</t>
+  </si>
+  <si>
+    <t>EXIXTENTE</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>JUEGO DE SOFA DE TRES PIEZAS</t>
+  </si>
+  <si>
+    <t>851-408010</t>
+  </si>
+  <si>
+    <t>SOFA EN L COLOR CHOCOLATE</t>
+  </si>
+  <si>
+    <t>851-5546N</t>
+  </si>
+  <si>
+    <t>SILLA P/BAR</t>
+  </si>
+  <si>
+    <t>ST-S1401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCRITORIO PARA PC </t>
+  </si>
+  <si>
+    <t>856-90133153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCHIVADOR NEGRO </t>
+  </si>
+  <si>
+    <t>704-90141433</t>
+  </si>
+  <si>
+    <t>851-SF242CHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUEGO DE SOFA 2 PIEZAS </t>
+  </si>
+  <si>
+    <t>851-408022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFA EN L 1 PIEZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIEL PARA CORTINA </t>
+  </si>
+  <si>
+    <t>605-90114684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA P/CENTRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOYERO GRANDE </t>
+  </si>
+  <si>
+    <t>719-83275-G</t>
+  </si>
+  <si>
+    <t>718-33321</t>
+  </si>
+  <si>
+    <t>6953869882888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PARA NIÑOS </t>
+  </si>
+  <si>
+    <t>852-8354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESA PLEGABLE </t>
+  </si>
+  <si>
+    <t>CTMF52-5C3L</t>
+  </si>
+  <si>
+    <t>ABANICO PARA TECHO</t>
+  </si>
+  <si>
+    <t>801-M030RD</t>
+  </si>
+  <si>
+    <t>CANDELABRO PEQUEÑO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUADROS MEDIANOS </t>
+  </si>
+  <si>
+    <t>754-90100046</t>
+  </si>
+  <si>
+    <t>754-90116784</t>
+  </si>
+  <si>
+    <t>CUADRO ELEFANTE</t>
+  </si>
+  <si>
+    <t>AD-0256</t>
+  </si>
+  <si>
+    <t>852-MA150340CA</t>
+  </si>
+  <si>
+    <t>801-58867V</t>
+  </si>
+  <si>
+    <t>MOTO VERDE P/NIÑO 102X53X6</t>
+  </si>
+  <si>
+    <t>704-81056</t>
+  </si>
+  <si>
+    <t>CANDELABRO 25X13X30</t>
+  </si>
+  <si>
+    <t>064-6014511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALETIN POLO VERDE CON NEGRO </t>
+  </si>
+  <si>
+    <t>1847010002C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDADERA DE ELEFANTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILLA PLEGABLE BEIGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA P/TECHO 5 BOMBILLOS </t>
+  </si>
+  <si>
+    <t>6904BR-5H</t>
+  </si>
+  <si>
+    <t>4513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OJO DE BUEY </t>
+  </si>
+  <si>
+    <t>6732</t>
+  </si>
+  <si>
+    <t>6496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPARA P/MESA P/NIÑOS </t>
+  </si>
+  <si>
+    <t>3405W-V</t>
+  </si>
+  <si>
+    <t>7204</t>
+  </si>
+  <si>
+    <t>LAMPARA INDISTRIAL P/TECHO</t>
+  </si>
+  <si>
+    <t>8410-5</t>
+  </si>
+  <si>
+    <t>ABE56TECHO</t>
+  </si>
+  <si>
+    <t>ABANICO PARA TECHO 56"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABINETE BLANCO PARA COCINA </t>
+  </si>
+  <si>
+    <t>SILLA P/BARBERIA</t>
+  </si>
+  <si>
+    <t>AL-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMOHADA PEQUEÑA </t>
+  </si>
+  <si>
+    <t>AL-M</t>
+  </si>
+  <si>
+    <t>AL-G</t>
+  </si>
+  <si>
+    <t>ALMOHADA MEDIANA</t>
+  </si>
+  <si>
+    <t>ALMOHADA GRANDE</t>
+  </si>
+  <si>
+    <t>MUEBLE P/TV</t>
+  </si>
+  <si>
+    <t>CANDELABRO (COPA)</t>
+  </si>
+  <si>
+    <t>7453080115394R</t>
+  </si>
+  <si>
+    <t>SILLA PLEGABLE COLOR ROJO</t>
+  </si>
+  <si>
+    <t>851-JMJ0326A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXISTENTE </t>
+  </si>
+  <si>
+    <t>852-CT334G</t>
+  </si>
+  <si>
+    <t>MOTO P/NIÑO COLOR ROJO 99X49X66 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-78996 </t>
+  </si>
+  <si>
+    <t>704-33364</t>
+  </si>
+  <si>
+    <t>604-81910</t>
+  </si>
+  <si>
+    <t>CUADRO ORQUIDIAS</t>
+  </si>
+  <si>
+    <t>MESA DE VIDRIO P/CENTRO 1100X600X450</t>
+  </si>
+  <si>
+    <t>CR-131</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>IU-11LT</t>
+  </si>
+  <si>
+    <t>OLLA DE PRESION UNIVERSAL ROYAL 11 LTS</t>
+  </si>
+  <si>
+    <t>856-149HM00153</t>
+  </si>
+  <si>
+    <t>Gabinete para Cocina</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion </t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>851-SF192CHO</t>
+  </si>
+  <si>
+    <t>722-90139248</t>
+  </si>
+  <si>
+    <t>139.98</t>
+  </si>
+  <si>
+    <t>861-HL313050</t>
+  </si>
+  <si>
+    <t>5413/5</t>
+  </si>
+  <si>
+    <t>852-9097486</t>
+  </si>
+  <si>
+    <t>Mesa Redonda</t>
+  </si>
+  <si>
+    <t>Silla para Oficina</t>
+  </si>
+  <si>
+    <t>Joyero Grande</t>
+  </si>
+  <si>
+    <t>856-90125227</t>
+  </si>
+  <si>
+    <t>Archivador Gris 4 gavetas</t>
+  </si>
+  <si>
+    <t>304B</t>
+  </si>
+  <si>
+    <t>4765-3H</t>
+  </si>
+  <si>
+    <t>FN-40T02WR</t>
+  </si>
+  <si>
+    <t>ZY-1780</t>
+  </si>
+  <si>
+    <t>856-DR883150</t>
+  </si>
+  <si>
+    <t>718-33324</t>
+  </si>
+  <si>
+    <t>718-33322</t>
+  </si>
+  <si>
+    <t>851-9096266</t>
+  </si>
+  <si>
+    <t>856-90125254</t>
+  </si>
+  <si>
+    <t>KD-042</t>
+  </si>
+  <si>
+    <t>Lampara para techo de 3 bombillos</t>
+  </si>
+  <si>
+    <t>Abanico para techo Ericsson</t>
+  </si>
+  <si>
+    <t>Cuadro</t>
+  </si>
+  <si>
+    <t>Joyero pequeño</t>
+  </si>
+  <si>
+    <t>Abanico de torre Sankey</t>
+  </si>
+  <si>
+    <t>Escritorio Gris</t>
+  </si>
+  <si>
+    <t>Planta Artificial</t>
+  </si>
+  <si>
+    <t>Cuadro de orquidea</t>
+  </si>
+  <si>
+    <t>Planta Artificial 34cm</t>
+  </si>
+  <si>
+    <t>Silla de Espera de 3 puestos</t>
+  </si>
+  <si>
+    <t>Archivador de 2 Gavetas</t>
+  </si>
+  <si>
+    <t>Archivador de 2 Gavetas con Vidrio</t>
+  </si>
+  <si>
+    <t>861-HL313051</t>
+  </si>
+  <si>
+    <t>7500H-PK</t>
+  </si>
+  <si>
+    <t>ST-S1229CPU</t>
+  </si>
+  <si>
+    <t>W-150B</t>
+  </si>
+  <si>
+    <t>BLD49-1260</t>
+  </si>
+  <si>
+    <t>754-31344</t>
+  </si>
+  <si>
+    <t>721-90140623</t>
+  </si>
+  <si>
+    <t>754-32009</t>
+  </si>
+  <si>
+    <t>853-SL036</t>
+  </si>
+  <si>
+    <t>GPLUS</t>
+  </si>
+  <si>
+    <t>Silla para Barberia</t>
+  </si>
+  <si>
+    <t>Mesa para Centro</t>
+  </si>
+  <si>
+    <t>Lampara para techo rosada</t>
+  </si>
+  <si>
+    <t>Mesa para Pc</t>
+  </si>
+  <si>
+    <t>Mesa para Pc Rojo vino</t>
+  </si>
+  <si>
+    <t>Escritorio</t>
+  </si>
+  <si>
+    <t>Cuadro Pequeño</t>
+  </si>
+  <si>
+    <t>Porta retrato</t>
+  </si>
+  <si>
+    <t>Cuadro para cocina Vinos</t>
+  </si>
+  <si>
+    <t>Dispensador de Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001# </t>
+  </si>
+  <si>
+    <t>MD2-1AC</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>861-450</t>
+  </si>
+  <si>
+    <t>FC001-N</t>
+  </si>
+  <si>
+    <t>853-2312H-N</t>
+  </si>
+  <si>
+    <t>853-SL1428RO</t>
+  </si>
+  <si>
+    <t>853-901CBA</t>
+  </si>
+  <si>
+    <t>853-90133083</t>
+  </si>
+  <si>
+    <t>853-FC001ARM</t>
+  </si>
+  <si>
+    <t>853-90122641</t>
+  </si>
+  <si>
+    <t>861-90144405</t>
+  </si>
+  <si>
+    <t>843-SL1022</t>
+  </si>
+  <si>
+    <t>Silla para oficina 4X51X77cm</t>
+  </si>
+  <si>
+    <t>Mueble para Tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silla para Oficina </t>
+  </si>
+  <si>
+    <t>Mesa de Aluminio</t>
+  </si>
+  <si>
+    <t>Silla metalica de 2 Puestos</t>
+  </si>
+  <si>
+    <t>Silla para Manicure</t>
+  </si>
+  <si>
+    <t>mesas de noche</t>
+  </si>
+  <si>
+    <t>cama</t>
+  </si>
+  <si>
+    <t>ropero</t>
+  </si>
+  <si>
+    <t>comoda</t>
+  </si>
+  <si>
+    <t>Organizador para Salon</t>
+  </si>
+  <si>
+    <t>Lampara para Mesa</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>853-90133066</t>
+  </si>
+  <si>
+    <t>803-7029968</t>
+  </si>
+  <si>
+    <t>861-90144400</t>
+  </si>
+  <si>
+    <t>604-81810</t>
+  </si>
+  <si>
+    <t>604-83733</t>
+  </si>
+  <si>
+    <t>853-90126606</t>
+  </si>
+  <si>
+    <t>604-80980</t>
+  </si>
+  <si>
+    <t>604-90135102</t>
+  </si>
+  <si>
+    <t>604-80986</t>
+  </si>
+  <si>
+    <t>853-9097483</t>
+  </si>
+  <si>
+    <t>D5-9929</t>
+  </si>
+  <si>
+    <t>801-84520</t>
+  </si>
+  <si>
+    <t>801-84526</t>
+  </si>
+  <si>
+    <t>801-84523</t>
+  </si>
+  <si>
+    <t>801-84519</t>
+  </si>
+  <si>
+    <t>053-0419823</t>
+  </si>
+  <si>
+    <t>874-83520</t>
+  </si>
+  <si>
+    <t>Deslizador para Niño</t>
+  </si>
+  <si>
+    <t>Taburete para Salon</t>
+  </si>
+  <si>
+    <t>Lampara para mesa</t>
+  </si>
+  <si>
+    <t>Escritorio para Oficina</t>
+  </si>
+  <si>
+    <t>Lampara para Escritorio</t>
+  </si>
+  <si>
+    <t>Patines Ajustables 27-30</t>
+  </si>
+  <si>
+    <t>Patines 35, 36, 37</t>
+  </si>
+  <si>
+    <t>Patines Ajustables 31-42</t>
+  </si>
+  <si>
+    <t>Paraguas para Niña 48cm</t>
+  </si>
+  <si>
+    <t>Cuadro para Sala</t>
   </si>
 </sst>
 </file>
@@ -661,7 +1605,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;C$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,8 +1619,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +1662,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -754,11 +1754,266 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -793,6 +2048,38 @@
       <fill>
         <patternFill patternType="gray0625">
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1075,7 +2362,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,10 +2896,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -1623,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,15 +4066,3887 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14">
+        <v>85</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
+        <v>145</v>
+      </c>
+      <c r="G3" s="29">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>135</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
+        <v>125</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
+        <v>298</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
+        <v>350</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>165</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="33">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
+        <v>488</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
+        <v>98</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>205</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="13">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13">
+        <v>115</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13">
+        <v>195</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13">
+        <v>110</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
+        <v>235</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13">
+        <v>158</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F27">
+    <sortState ref="A2:F27">
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="37"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17">
+        <v>210</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="17">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>108</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
+        <v>98</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
+        <v>365</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="16">
+        <v>8</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="16">
+        <v>7</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16">
+        <v>58</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16">
+        <v>480</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16">
+        <v>198</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16">
+        <v>158</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16">
+        <v>148</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16">
+        <v>68</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16">
+        <v>298</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16">
+        <v>135</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F27">
+      <sortCondition sortBy="cellColor" ref="C1" dxfId="36"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13">
+        <v>185</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <v>145</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
+        <v>95</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
+        <v>125</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23">
+        <v>298</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
+        <v>85</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F2">
+    <sortState ref="A3:F17">
+      <sortCondition sortBy="cellColor" ref="C2" dxfId="35"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A3:A8">
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39">
+        <v>5</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39">
+        <v>65</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39">
+        <v>13.5</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39">
+        <v>85</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40">
+        <v>13.5</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>40</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>160</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39">
+        <v>20</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
+        <v>195</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>39</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <v>238</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>148</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>139</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>135</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
+        <v>98</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1450</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1298</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1298</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="39">
+        <v>135</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="39">
+        <v>15</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="39">
+        <v>32</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6</v>
+      </c>
+      <c r="D25" s="39">
+        <v>19</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="39">
+        <v>32</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="39">
+        <v>498</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="39">
+        <v>230</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="39">
+        <v>48</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="39">
+        <v>98</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="39">
+        <v>35</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39">
+        <v>8.5</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="39">
+        <v>9.5</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="39">
+        <v>11.5</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="39">
+        <v>98</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="39">
+        <v>31</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" s="39">
+        <v>35</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3</v>
+      </c>
+      <c r="D38" s="39">
+        <v>145</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="39">
+        <v>15</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="39">
+        <v>15</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="39">
+        <v>14</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+      <c r="D42" s="39">
+        <v>4</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="39">
+        <v>95</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="39">
+        <v>34</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="39">
+        <v>35</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="39">
+        <v>35</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6</v>
+      </c>
+      <c r="D48" s="39">
+        <v>10</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="39">
+        <v>20</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="39">
+        <v>34</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="39">
+        <v>98</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D51">
+    <sortState ref="A2:F51">
+      <sortCondition sortBy="cellColor" ref="A1:A51" dxfId="34"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A15 A23:A1048576 A17:A21">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D51">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{81214372-231B-4569-A78C-41600218AF42}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{81214372-231B-4569-A78C-41600218AF42}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:D51</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="37">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" t="s">
+        <v>463</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="24">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B36" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>481</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" t="s">
+        <v>482</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="B41" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>77.5</v>
+      </c>
+      <c r="I41">
+        <f>J41*K41</f>
+        <v>120</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>1200</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="B42" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>195</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:I44" si="0">J42*K42</f>
+        <v>480</v>
+      </c>
+      <c r="J42">
+        <v>0.4</v>
+      </c>
+      <c r="K42">
+        <v>1200</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="B43" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="J43">
+        <v>0.3</v>
+      </c>
+      <c r="K43">
+        <v>1200</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="B44" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>68</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J44">
+        <v>0.2</v>
+      </c>
+      <c r="K44">
+        <v>1200</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>155</v>
+      </c>
+      <c r="I45">
+        <f>SUM(I41:I44)</f>
+        <v>1200</v>
+      </c>
+      <c r="J45">
+        <f>SUM(J41:J44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="B46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="B47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="B48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="B49" t="s">
+        <v>421</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="B51" t="s">
+        <v>490</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>88</v>
+      </c>
+      <c r="I51" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" t="s">
+        <v>491</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B54" t="s">
+        <v>482</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="24">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B55" t="s">
+        <v>510</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="24">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="B56" t="s">
+        <v>511</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" t="s">
+        <v>512</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="B58" t="s">
+        <v>512</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="B59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B60" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="B61" t="s">
+        <v>491</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B62" t="s">
+        <v>491</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="B63" t="s">
+        <v>513</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="B64" t="s">
+        <v>514</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B65" t="s">
+        <v>515</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="B66" t="s">
+        <v>516</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B67" t="s">
+        <v>517</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="B68" t="s">
+        <v>515</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="B69" t="s">
+        <v>518</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="B70" t="s">
+        <v>519</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D5 B6:D7 B8:C8 C9:C23 D8:D17 B9:B18">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9881DC94-15A1-41F2-80F8-0E32E3E7BFA2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B61 A2:D56 B63:B70 C57:C70">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7B785665-5E7F-4BE7-A5AC-AE855A943F5D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67AEB45B-FDD5-4E88-BB2E-40FC7BBFC51F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E185E69E-2236-4BDA-B0C7-0F0BDDA17213}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9881DC94-15A1-41F2-80F8-0E32E3E7BFA2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D5 B6:D7 B8:C8 C9:C23 D8:D17 B9:B18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7B785665-5E7F-4BE7-A5AC-AE855A943F5D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B58:B61 A2:D56 B63:B70 C57:C70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67AEB45B-FDD5-4E88-BB2E-40FC7BBFC51F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E185E69E-2236-4BDA-B0C7-0F0BDDA17213}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B57</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
+++ b/ENTRADAS MULTIHOGAR_7_8_2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin Siles\Documents\GitHub\MH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\MH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="31_08_17" sheetId="5" r:id="rId5"/>
     <sheet name="14_09_17" sheetId="6" r:id="rId6"/>
     <sheet name="25_09_17" sheetId="7" r:id="rId7"/>
+    <sheet name="06_10_17" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'06_10_17'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'14_09_17'!$A$1:$D$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23_08_17'!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25_08_17'!$A$1:$F$1</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="536">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1596,6 +1598,54 @@
   </si>
   <si>
     <t>Cuadro para Sala</t>
+  </si>
+  <si>
+    <t>6910BR-5H</t>
+  </si>
+  <si>
+    <t>827582CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFA DE DEDOS </t>
+  </si>
+  <si>
+    <t>861-701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAVA CABEZAS </t>
+  </si>
+  <si>
+    <t>4916HY</t>
+  </si>
+  <si>
+    <t>TELEFONO INALAMBRICO</t>
+  </si>
+  <si>
+    <t>AD0256#</t>
+  </si>
+  <si>
+    <t>MESA/ CENTRO</t>
+  </si>
+  <si>
+    <t>856-90133154</t>
+  </si>
+  <si>
+    <t>ARCHIVADOR NEGRO DE 4 GAVETAS</t>
+  </si>
+  <si>
+    <t>861-1880AC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAGUA PARA NIÑA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALIDAS </t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>SILLA P/ESPERA 4 PUESTOS</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1707,6 +1757,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1735,7 +1797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1802,11 +1864,68 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0CECE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0CECE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA9D08E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA9D08E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0CECE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0CECE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2896,10 +3015,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4066,13 +4185,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -4687,23 +4806,23 @@
   </sheetData>
   <autoFilter ref="A1:F27">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="37"/>
+      <sortCondition sortBy="cellColor" ref="C1:C27" dxfId="44"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -5377,24 +5496,24 @@
   </sheetData>
   <autoFilter ref="A1:F1">
     <sortState ref="A2:F27">
-      <sortCondition sortBy="cellColor" ref="C1" dxfId="36"/>
+      <sortCondition sortBy="cellColor" ref="C1" dxfId="43"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -5775,31 +5894,31 @@
   </sheetData>
   <autoFilter ref="A2:F2">
     <sortState ref="A3:F17">
-      <sortCondition sortBy="cellColor" ref="C2" dxfId="35"/>
+      <sortCondition sortBy="cellColor" ref="C2" dxfId="42"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20480" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
@@ -6695,30 +6814,30 @@
   </sheetData>
   <autoFilter ref="A1:D51">
     <sortState ref="A2:F51">
-      <sortCondition sortBy="cellColor" ref="A1:A51" dxfId="34"/>
+      <sortCondition sortBy="cellColor" ref="A1:A51" dxfId="41"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A15 A23:A1048576 A17:A21">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D51">
     <cfRule type="dataBar" priority="15">
@@ -6762,8 +6881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7830,7 +7949,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D5 B6:D7 B8:C8 C9:C23 D8:D17 B9:B18">
     <cfRule type="dataBar" priority="13">
@@ -7949,4 +8068,272 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="43">
+        <v>5</v>
+      </c>
+      <c r="D3" s="43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="42">
+        <v>2</v>
+      </c>
+      <c r="D5" s="42">
+        <v>145</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+      <c r="D6" s="42">
+        <v>486</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="42">
+        <v>1</v>
+      </c>
+      <c r="D9" s="42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="42">
+        <v>1</v>
+      </c>
+      <c r="D10" s="42">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="42">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1</v>
+      </c>
+      <c r="D12" s="42">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="42">
+        <v>1</v>
+      </c>
+      <c r="D13" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="C14" s="42">
+        <v>1</v>
+      </c>
+      <c r="D14" s="42">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D14">
+      <sortCondition descending="1" sortBy="cellColor" ref="B2:B14" dxfId="1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5BB3C102-78E4-457C-917A-03D4D0DF374B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5BB3C102-78E4-457C-917A-03D4D0DF374B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>